--- a/Paper_Code/AR_Cov/Results/AR_Full_Results_d1000_n900_Gaussian_noise.xlsx
+++ b/Paper_Code/AR_Cov/Results/AR_Full_Results_d1000_n900_Gaussian_noise.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,22 +465,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -497,16 +512,25 @@
         <v>0.05579341537717265</v>
       </c>
       <c r="D2" t="n">
+        <v>0.00176434271031728</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.87</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.3363034344160047</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.01063484837691634</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.2822294309900422</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01403763300196867</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.000443908932437679</v>
       </c>
     </row>
     <row r="3">
@@ -522,16 +546,25 @@
         <v>0.0557924913839719</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001764313491086711</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.87</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.3363034344160047</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.01063484837691634</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.282252712241892</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.01405554686959225</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0004444754186716118</v>
       </c>
     </row>
     <row r="4">
@@ -547,16 +580,25 @@
         <v>0.05443647412196406</v>
       </c>
       <c r="D4" t="n">
+        <v>0.00172143246014221</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.888</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.3153664535108324</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.00997276290703835</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.279287044790554</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01391919279592543</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0004401635242613163</v>
       </c>
     </row>
     <row r="5">
@@ -572,16 +614,25 @@
         <v>0.05438177823184</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001719702824227787</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.889</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.314132137801913</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.009933730417119242</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.281298711292628</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01420039298721283</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0004490558550907484</v>
       </c>
     </row>
     <row r="6">
@@ -597,16 +648,25 @@
         <v>0.0473361702517323</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001496901137049801</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.884</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.320224920954007</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.01012640113762041</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.2476229518152107</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01088398221347213</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0003441817380733291</v>
       </c>
     </row>
     <row r="7">
@@ -622,16 +682,25 @@
         <v>2.671386288018696</v>
       </c>
       <c r="D7" t="n">
+        <v>0.08447665180281655</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.963</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.1887617546008724</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.005969170796685247</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.8850328418739121</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>4.848078378656215</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.1533096995156989</v>
       </c>
     </row>
     <row r="8">
@@ -647,16 +716,25 @@
         <v>4.725907627409204</v>
       </c>
       <c r="D8" t="n">
+        <v>0.1494463211417547</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.955</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2073041244162788</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.006555532015023648</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.413475000944901</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>8.261044030963662</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.2612371498878372</v>
       </c>
     </row>
     <row r="9">
@@ -672,16 +750,25 @@
         <v>6.432277385907304</v>
       </c>
       <c r="D9" t="n">
+        <v>0.2034064708146093</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.953</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.006692607862410586</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.196024396854441</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>7.043662163913356</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.2227401550671647</v>
       </c>
     </row>
     <row r="10">
@@ -697,16 +784,25 @@
         <v>4.605237654451882</v>
       </c>
       <c r="D10" t="n">
+        <v>0.1456304015443941</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.95</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2179449471770337</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.006892024376045113</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.538993924513407</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>9.531103319293042</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.3013999510335708</v>
       </c>
     </row>
     <row r="11">
@@ -722,16 +818,25 @@
         <v>7.964496763375748</v>
       </c>
       <c r="D11" t="n">
+        <v>0.2518595018930649</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.95</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2179449471770337</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.006892024376045113</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.916726715968333</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>25.30653003070438</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.8002627457247667</v>
       </c>
     </row>
     <row r="12">
@@ -747,16 +852,25 @@
         <v>0.05719295204134012</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001808599945594114</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.948</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2220270253820467</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.007021111023192841</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.3599211315711489</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.01530614065612267</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.000484022666602517</v>
       </c>
     </row>
     <row r="13">
@@ -772,16 +886,25 @@
         <v>0.05740725472391178</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001815376791450219</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.944</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.2299217258111986</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.007270763371201129</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.3580894516339918</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.01523545985466035</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0004817875434078462</v>
       </c>
     </row>
     <row r="14">
@@ -797,16 +920,25 @@
         <v>0.0547108408836443</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001730108698953752</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.946</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2260176984220484</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007147307185227175</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.3540026909928865</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.01433208290798</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0004532202560358621</v>
       </c>
     </row>
     <row r="15">
@@ -822,16 +954,25 @@
         <v>0.05521961956626392</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001730108698953752</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.944</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2299217258111986</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007270763371201129</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.3521648187906976</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.01442664255347706</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0004562104945809501</v>
       </c>
     </row>
     <row r="16">
@@ -847,16 +988,25 @@
         <v>0.0457271874868319</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001446020634519396</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.956</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2050950998927083</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.006485676526007137</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.3005432775758337</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.009898698390188801</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0003130243278403874</v>
       </c>
     </row>
     <row r="17">
@@ -872,16 +1022,25 @@
         <v>0.05738031078531975</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001814524749299354</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.883</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.3214202856074893</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.01016420188701503</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.3009341677787979</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01187866373855902</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0003756363297309738</v>
       </c>
     </row>
     <row r="18">
@@ -897,16 +1056,25 @@
         <v>0.05523121072530334</v>
       </c>
       <c r="D18" t="n">
+        <v>0.00174656423820679</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.889</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.314132137801913</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.009933730417119242</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.2958205568794096</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.01174819107757458</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0003715104219200358</v>
       </c>
     </row>
     <row r="19">
@@ -922,16 +1090,25 @@
         <v>0.05804769781595733</v>
       </c>
       <c r="D19" t="n">
+        <v>0.001835629380276067</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.914</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2803640490505157</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.008865889690267975</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.3316129813898913</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.01761727784799745</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.000557107241717016</v>
       </c>
     </row>
     <row r="20">
@@ -947,16 +1124,25 @@
         <v>0.05572254922028044</v>
       </c>
       <c r="D20" t="n">
+        <v>0.001762101725669258</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.913</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2818350581457176</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.00891240708226459</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.3259080154034308</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.01724749895059558</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0005454138062524598</v>
       </c>
     </row>
     <row r="21">
@@ -972,16 +1158,25 @@
         <v>0.06917223256120435</v>
       </c>
       <c r="D21" t="n">
+        <v>0.002187418057322683</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.929</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.2568248430350927</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.008121514637061242</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.4203187336362083</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.02062981397432344</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0006523719986443247</v>
       </c>
     </row>
     <row r="22">
@@ -997,16 +1192,25 @@
         <v>0.06545518742225401</v>
       </c>
       <c r="D22" t="n">
+        <v>0.002069874769275281</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.9389999999999999</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.239330315672712</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.007568289106528635</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.4131879433957139</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.02020862042040656</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0006390526889827419</v>
       </c>
     </row>
   </sheetData>
@@ -1020,7 +1224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1046,22 +1250,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -1078,16 +1297,25 @@
         <v>0.03777923810547453</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001194684406791241</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.7364665102711385</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.07502366249811813</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.002372456519018112</v>
       </c>
     </row>
     <row r="3">
@@ -1103,16 +1331,25 @@
         <v>0.03777808906901698</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001194648071068036</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.7665582304624938</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.0753530849737906</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.002382873772373876</v>
       </c>
     </row>
     <row r="4">
@@ -1128,16 +1365,25 @@
         <v>0.03644031779093847</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001152344028797211</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.7197088415889599</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.07055298810470773</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.002231081381416426</v>
       </c>
     </row>
     <row r="5">
@@ -1153,16 +1399,25 @@
         <v>0.03628127933577006</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001147314791258343</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.7527529272012482</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.07203545824178829</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.002277961203379993</v>
       </c>
     </row>
     <row r="6">
@@ -1178,16 +1433,25 @@
         <v>0.03097224443684991</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0009794283666792484</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.5698699316892553</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.05391674815405839</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.001704997281965036</v>
       </c>
     </row>
     <row r="7">
@@ -1203,16 +1467,25 @@
         <v>0.03357949848236318</v>
       </c>
       <c r="D7" t="n">
+        <v>0.001061876978904351</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.944</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2299217258111986</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.007270763371201129</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.2178314634717801</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.009231220329690556</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0002919168182467263</v>
       </c>
     </row>
     <row r="8">
@@ -1228,16 +1501,25 @@
         <v>0.03379514855536974</v>
       </c>
       <c r="D8" t="n">
+        <v>0.001068696432987174</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.9379999999999999</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2411555514600483</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.007626008130076967</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.2167374471604898</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.009192562650763176</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0002906943551020661</v>
       </c>
     </row>
     <row r="9">
@@ -1253,16 +1535,25 @@
         <v>0.03278808417130489</v>
       </c>
       <c r="D9" t="n">
+        <v>0.001036850260946379</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.955</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2073041244162788</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.006555532015023648</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.2142614367142776</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.008699056120479972</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0002750883083434483</v>
       </c>
     </row>
     <row r="10">
@@ -1278,16 +1569,25 @@
         <v>0.03316525436510873</v>
       </c>
       <c r="D10" t="n">
+        <v>0.001036850260946379</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.952</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2137662274541982</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.006759881655768835</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.2131443034732248</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.008736536317279863</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0002762735362338384</v>
       </c>
     </row>
     <row r="11">
@@ -1303,16 +1603,25 @@
         <v>0.02740792877428234</v>
       </c>
       <c r="D11" t="n">
+        <v>0.0008667148087439915</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.96</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.1959591794226543</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.006196773353931867</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.1819855699366504</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.006016426339431709</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0001902561060723351</v>
       </c>
     </row>
     <row r="12">
@@ -1328,16 +1637,25 @@
         <v>0.03368362266621826</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001065169674709233</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.89</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3128897569432403</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.009894442884771228</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.1829283664572658</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.00727690349594664</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0002301158936043324</v>
       </c>
     </row>
     <row r="13">
@@ -1353,16 +1671,25 @@
         <v>0.03316681442779792</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001048826763239757</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.906</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.2918287168871494</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.009228434320078352</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.1798228082226432</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.007185506212011395</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0002272256577124475</v>
       </c>
     </row>
     <row r="14">
@@ -1378,16 +1705,25 @@
         <v>0.03523182592348162</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001114128160447671</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.924</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2649981132008302</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008379976133617566</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.2115644191191643</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.01510306057975281</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0004776007107152202</v>
       </c>
     </row>
     <row r="15">
@@ -1403,16 +1739,25 @@
         <v>0.0343817337607456</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001087245885894628</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.9320000000000001</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.251745903640953</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007960904471226871</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.2079068500845154</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.01471682623492432</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0004653869083128111</v>
       </c>
     </row>
     <row r="16">
@@ -1428,16 +1773,25 @@
         <v>0.03703761032035995</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001171232077020961</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.931</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2534541378632434</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.008014923580421713</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.2256437150463348</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.009495176762690637</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0003002638535600652</v>
       </c>
     </row>
     <row r="17">
@@ -1453,16 +1807,25 @@
         <v>0.03542116184886532</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001120115488118753</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9409999999999999</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.235624701591323</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007451107300260814</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.2218291452093993</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.009422754016947751</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0002979736452505573</v>
       </c>
     </row>
   </sheetData>
@@ -1476,7 +1839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1502,22 +1865,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -1534,16 +1912,25 @@
         <v>0.1331736418269274</v>
       </c>
       <c r="D2" t="n">
+        <v>0.004211320324725579</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>3.694391294818281</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.1146121192774385</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.003624353443755976</v>
       </c>
     </row>
     <row r="3">
@@ -1559,16 +1946,25 @@
         <v>0.1336563963383727</v>
       </c>
       <c r="D3" t="n">
+        <v>0.004226586362794468</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>3.791863880386583</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.1189391406695123</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00376118587458823</v>
       </c>
     </row>
     <row r="4">
@@ -1584,16 +1980,25 @@
         <v>0.1267492235255245</v>
       </c>
       <c r="D4" t="n">
+        <v>0.004008162379984546</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>3.586107816505992</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.1062887890308427</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.003361146630785838</v>
       </c>
     </row>
     <row r="5">
@@ -1609,16 +2014,25 @@
         <v>0.1298316195546852</v>
       </c>
       <c r="D5" t="n">
+        <v>0.00410563630101261</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>3.684211691043691</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.1118285953759042</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.003536330689252309</v>
       </c>
     </row>
     <row r="6">
@@ -1634,16 +2048,25 @@
         <v>0.06883489637945166</v>
       </c>
       <c r="D6" t="n">
+        <v>0.002176750550607452</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>2.536783275329619</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.06698513082862725</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.002118255827828242</v>
       </c>
     </row>
     <row r="7">
@@ -1659,16 +2082,25 @@
         <v>0.2764074414576254</v>
       </c>
       <c r="D7" t="n">
+        <v>0.008740770772257479</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.616</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.4863578929142613</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.01537998699609333</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.7824888880943692</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.1233192073393707</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.003899695744389644</v>
       </c>
     </row>
     <row r="8">
@@ -1684,16 +2116,25 @@
         <v>0.1542316040020275</v>
       </c>
       <c r="D8" t="n">
+        <v>0.004877231558275475</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.4963869458396343</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01569713349627887</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.4699535309104194</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.04639210266435253</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0014670470986372</v>
       </c>
     </row>
     <row r="9">
@@ -1709,16 +2150,25 @@
         <v>0.2714741832721184</v>
       </c>
       <c r="D9" t="n">
+        <v>0.008584767450738764</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.626</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.4838636171484688</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.01530111107076869</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.7284146433205668</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.1215148465711836</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.003842636846908422</v>
       </c>
     </row>
     <row r="10">
@@ -1734,16 +2184,25 @@
         <v>0.1510043643138035</v>
       </c>
       <c r="D10" t="n">
+        <v>0.008584767450738764</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.583</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.4930628763149787</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01559201718829222</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.4601563538964165</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.04517375153275258</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.001428519452980206</v>
       </c>
     </row>
     <row r="11">
@@ -1759,16 +2218,25 @@
         <v>0.1069089322726981</v>
       </c>
       <c r="D11" t="n">
+        <v>0.003380757281984076</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.613</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.4870636508712183</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.01540230502230105</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.3590241902442249</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.02885457643809412</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0009124618246380593</v>
       </c>
     </row>
     <row r="12">
@@ -1784,16 +2252,25 @@
         <v>0.2943246585813761</v>
       </c>
       <c r="D12" t="n">
+        <v>0.00930736292668571</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.65</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.4769696007084728</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01508310312899836</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.070084701298024</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.1060472595752939</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.003353508798770291</v>
       </c>
     </row>
     <row r="13">
@@ -1809,16 +2286,25 @@
         <v>0.2854061375876484</v>
       </c>
       <c r="D13" t="n">
+        <v>0.009025334529683633</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.664</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.4723388614120164</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01493666629472588</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.003725030664341</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.1034327044093987</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.003270829304846409</v>
       </c>
     </row>
     <row r="14">
@@ -1834,16 +2320,25 @@
         <v>0.2327273087796791</v>
       </c>
       <c r="D14" t="n">
+        <v>0.007359483694650877</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.867</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.339574734042449</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.01073829595420055</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.237862974645073</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.1449011009483185</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.004582175144626707</v>
       </c>
     </row>
     <row r="15">
@@ -1859,16 +2354,25 @@
         <v>0.2234719805029927</v>
       </c>
       <c r="D15" t="n">
+        <v>0.007066804516181975</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.865</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.3417235724968355</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.01080624819259673</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.160513749513784</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.1375544082440107</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.004349852322477162</v>
       </c>
     </row>
     <row r="16">
@@ -1884,16 +2388,25 @@
         <v>0.2065021031060466</v>
       </c>
       <c r="D16" t="n">
+        <v>0.006530169874300384</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.944</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2299217258111986</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007270763371201129</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.319896358762768</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.1313513864094424</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.004153695548747243</v>
       </c>
     </row>
     <row r="17">
@@ -1909,16 +2422,25 @@
         <v>0.1924947009937565</v>
       </c>
       <c r="D17" t="n">
+        <v>0.006087216926533482</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.945</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.22798026230356</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007209368904418751</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.238122058591026</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.1282636365344072</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.004056052324247127</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +2454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1958,22 +2480,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -1990,16 +2527,25 @@
         <v>0.04913201240753585</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001553690652354662</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.325262779959229</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.05185067249347336</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001639662232908179</v>
       </c>
     </row>
     <row r="3">
@@ -2015,16 +2561,25 @@
         <v>0.04874778814951816</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001541540414478422</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.355885940726803</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.05288684425277138</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001672428860973434</v>
       </c>
     </row>
     <row r="4">
@@ -2040,16 +2595,25 @@
         <v>0.04733343557204086</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001496814658884841</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.294991600112043</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.04917826320483442</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001555153230985285</v>
       </c>
     </row>
     <row r="5">
@@ -2065,16 +2629,25 @@
         <v>0.04697374560101335</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001485440263285172</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.327465236218558</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.05126696746176692</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001621203859089247</v>
       </c>
     </row>
     <row r="6">
@@ -2090,16 +2663,25 @@
         <v>0.03994720302171153</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001263241477017691</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.020929925064117</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.03522091529767842</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.001113783136165312</v>
       </c>
     </row>
     <row r="7">
@@ -2115,16 +2697,25 @@
         <v>0.04803233307950461</v>
       </c>
       <c r="D7" t="n">
+        <v>0.001518915738630841</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.88</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.3249615361854384</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.0102761860629321</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.2576977667736353</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.01381996837786453</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0004370257726555443</v>
       </c>
     </row>
     <row r="8">
@@ -2140,16 +2731,25 @@
         <v>0.0448473933294091</v>
       </c>
       <c r="D8" t="n">
+        <v>0.001418199100423748</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.871</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.3351999403341235</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01059995283008373</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.2388046096767365</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.01213864772603681</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.000383857745286999</v>
       </c>
     </row>
     <row r="9">
@@ -2165,16 +2765,25 @@
         <v>0.04846212286322725</v>
       </c>
       <c r="D9" t="n">
+        <v>0.001532506884947188</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.887</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.3165927984019852</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.01001154333756789</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.2518863539307397</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.01300306804249881</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0004111931158444337</v>
       </c>
     </row>
     <row r="10">
@@ -2190,16 +2799,25 @@
         <v>0.0457422218358005</v>
       </c>
       <c r="D10" t="n">
+        <v>0.001532506884947188</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.88</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.3249615361854384</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.0102761860629321</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.2346585346004003</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.01191377299785477</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0003767465819943339</v>
       </c>
     </row>
     <row r="11">
@@ -2215,16 +2833,25 @@
         <v>0.03772471891998204</v>
       </c>
       <c r="D11" t="n">
+        <v>0.001192960358767906</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.886</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.317811264746862</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.0100500746265886</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.2029779182189718</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.008063361317470224</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0002549858736010196</v>
       </c>
     </row>
     <row r="12">
@@ -2240,16 +2867,25 @@
         <v>0.05598324341510133</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001770345599953435</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.794</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.4044304637388237</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.0127892142057282</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.2429004814613576</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.01164247160846404</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0003681672787659046</v>
       </c>
     </row>
     <row r="13">
@@ -2265,16 +2901,25 @@
         <v>0.05521536948437273</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001746063294183747</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.793</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.4051555256935292</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01281214267794423</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.2368518843415933</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.01118311119763539</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0003536410271146125</v>
       </c>
     </row>
     <row r="14">
@@ -2290,16 +2935,25 @@
         <v>0.04731071319910364</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001496096114361587</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.918</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2743647207641682</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008676174272108645</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.2809203831947825</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.02133155206894312</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0006745629056433741</v>
       </c>
     </row>
     <row r="15">
@@ -2315,16 +2969,25 @@
         <v>0.04828054136431897</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001526764773772212</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.906</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2918287168871494</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.009228434320078352</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.2738262307287008</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.02033925628564198</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0006431837577652492</v>
       </c>
     </row>
     <row r="16">
@@ -2340,16 +3003,25 @@
         <v>0.04649485058210697</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001470296273086636</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.946</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2260176984220484</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007147307185227175</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.2996150834345986</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.01484044950977199</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0004692962195160875</v>
       </c>
     </row>
     <row r="17">
@@ -2365,16 +3037,25 @@
         <v>0.04622918761850283</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001461895272537241</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9409999999999999</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2356247015913229</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007451107300260813</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.2921748832840196</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01431972380976343</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0004528294270339614</v>
       </c>
     </row>
   </sheetData>
@@ -2388,7 +3069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2414,22 +3095,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -2446,16 +3142,25 @@
         <v>0.04385171357180254</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001386712941882137</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.9419999999999999</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.2337434491060658</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.007391616873188166</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.2726221678219108</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01659106402633865</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0005246555112891395</v>
       </c>
     </row>
     <row r="3">
@@ -2471,16 +3176,25 @@
         <v>0.04385323490722005</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001386761050732181</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.965</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1837797594948911</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.005811626278418117</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.3019273838575601</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.0173305206603586</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0005480391832333856</v>
       </c>
     </row>
     <row r="4">
@@ -2496,16 +3210,25 @@
         <v>0.04295798620687313</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001358450801078163</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.947</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.2240334796408786</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.00708456067798138</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.2705224621762785</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01600370217801969</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.000506081498775397</v>
       </c>
     </row>
     <row r="5">
@@ -2521,16 +3244,25 @@
         <v>0.04297545152146567</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001359003102819801</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.97</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.1705872210923198</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.005394441583704471</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.299472186241265</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01690079845938479</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0005344501740712068</v>
       </c>
     </row>
     <row r="6">
@@ -2546,16 +3278,25 @@
         <v>0.03782213406908669</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001196040896265662</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.957</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.2028570925553257</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.006414904519944159</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.2513091800304092</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01290551203858089</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0004081081241263842</v>
       </c>
     </row>
     <row r="7">
@@ -2571,16 +3312,25 @@
         <v>0.04531365314974112</v>
       </c>
       <c r="D7" t="n">
+        <v>0.001432943530560449</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2374868417407584</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.007509993342207436</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.2846550551658415</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.01206284951984599</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0003814607955458183</v>
       </c>
     </row>
     <row r="8">
@@ -2596,16 +3346,25 @@
         <v>0.04545711558953493</v>
       </c>
       <c r="D8" t="n">
+        <v>0.001437480211244781</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.9379999999999999</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2411555514600482</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.007626008130076966</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.2832113016971876</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.01200605296938415</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0003796647309188174</v>
       </c>
     </row>
     <row r="9">
@@ -2621,16 +3380,25 @@
         <v>0.04317365735151454</v>
       </c>
       <c r="D9" t="n">
+        <v>0.001365270921504588</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.947</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2240334796408786</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.00708456067798138</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.2799742565198786</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.01132244905306496</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0003580472769890194</v>
       </c>
     </row>
     <row r="10">
@@ -2646,16 +3414,25 @@
         <v>0.04355022034840478</v>
       </c>
       <c r="D10" t="n">
+        <v>0.001365270921504588</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.945</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.22798026230356</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.007209368904418751</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.2785133822982688</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.01138155942173285</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0003599165109722472</v>
       </c>
     </row>
     <row r="11">
@@ -2671,16 +3448,25 @@
         <v>0.03621707769766642</v>
       </c>
       <c r="D11" t="n">
+        <v>0.00114528455719913</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.953</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.006692607862410587</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.2378113724678103</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.007820034782068528</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0002472912129307501</v>
       </c>
     </row>
     <row r="12">
@@ -2696,16 +3482,25 @@
         <v>0.04539546885051018</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001435530770188379</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.888</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3153664535108324</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.00997276290703835</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.2437751432934335</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.01022102189609727</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0003232170920612024</v>
       </c>
     </row>
     <row r="13">
@@ -2721,16 +3516,25 @@
         <v>0.04394530206504572</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001389672469896454</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.895</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3065534211193866</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.009694070352540258</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.2397278301925762</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.0100810759350305</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0003187916121980801</v>
       </c>
     </row>
     <row r="14">
@@ -2746,16 +3550,25 @@
         <v>0.04642147209714305</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001467975841649252</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.912</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2832948993540124</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008958571314668427</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.26714923047228</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.01074317088761246</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0003397288929726819</v>
       </c>
     </row>
     <row r="15">
@@ -2771,16 +3584,25 @@
         <v>0.04444373637337139</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001405434346679252</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.921</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.26973876250921</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.008529888627643386</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.2626197997314881</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.01067317995348364</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.000337515585298583</v>
       </c>
     </row>
     <row r="16">
@@ -2796,16 +3618,25 @@
         <v>0.05148325429220266</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001628043449210003</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.928</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2584879107424562</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.008174105455644672</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.3109333422948158</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.01370104070154908</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0004332649493156636</v>
       </c>
     </row>
     <row r="17">
@@ -2821,16 +3652,25 @@
         <v>0.04834146487356534</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001528691344294901</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9419999999999999</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2337434491060658</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007391616873188166</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.3056796937288856</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01359477586753091</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.000429904560208892</v>
       </c>
     </row>
   </sheetData>
@@ -2844,7 +3684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2870,22 +3710,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -2902,16 +3757,25 @@
         <v>0.1802416721673007</v>
       </c>
       <c r="D2" t="n">
+        <v>0.005699742133260477</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.901</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.298662016332844</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.009444522221901962</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.003201575426322</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.04113373638643688</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001300762956540845</v>
       </c>
     </row>
     <row r="3">
@@ -2927,16 +3791,25 @@
         <v>0.1807896759149597</v>
       </c>
       <c r="D3" t="n">
+        <v>0.005717071533349583</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.921</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.26973876250921</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.008529888627643386</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.084704083304868</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.04319577741309016</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001365970419270209</v>
       </c>
     </row>
     <row r="4">
@@ -2952,16 +3825,25 @@
         <v>0.1728068299761157</v>
       </c>
       <c r="D4" t="n">
+        <v>0.005464631779579863</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.911</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.2847437444440176</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.00900438781928011</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.9821624086466214</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.0404193111161542</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001278170845820099</v>
       </c>
     </row>
     <row r="5">
@@ -2977,16 +3859,25 @@
         <v>0.1755168699223345</v>
       </c>
       <c r="D5" t="n">
+        <v>0.005550330767380776</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.923</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.266591447724791</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.008430361795320531</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.057663739117539</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.04297950344035396</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001359131235745613</v>
       </c>
     </row>
     <row r="6">
@@ -3002,16 +3893,25 @@
         <v>0.09388336337413145</v>
       </c>
       <c r="D6" t="n">
+        <v>0.002968852626594861</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.995</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.07053367989832943</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.002230470802319546</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.795888271644444</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.02246272555666368</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0007103337521433086</v>
       </c>
     </row>
     <row r="7">
@@ -3027,16 +3927,25 @@
         <v>0.322448705614654</v>
       </c>
       <c r="D7" t="n">
+        <v>0.01019672338315431</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.752</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.4318518264405048</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.01365635383255721</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.003809859652215</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.1992157674721778</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.006299755710305665</v>
       </c>
     </row>
     <row r="8">
@@ -3052,16 +3961,25 @@
         <v>0.1654306501522139</v>
       </c>
       <c r="D8" t="n">
+        <v>0.005231376492834768</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.713</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.4523615810388853</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01430492922037715</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.6133555895315055</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.06066344108294327</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.001918346445255322</v>
       </c>
     </row>
     <row r="9">
@@ -3077,16 +3995,25 @@
         <v>0.3159493311852631</v>
       </c>
       <c r="D9" t="n">
+        <v>0.009991195117522981</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.768</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.4221089906647335</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.0133482583133531</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.9345678627305286</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.1943234836579867</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.006145048112177464</v>
       </c>
     </row>
     <row r="10">
@@ -3102,16 +4029,25 @@
         <v>0.164939355927375</v>
       </c>
       <c r="D10" t="n">
+        <v>0.009991195117522981</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.737</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.440262421744123</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.0139223202089307</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.6002292287790528</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.06057638410679297</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.001915593461946903</v>
       </c>
     </row>
     <row r="11">
@@ -3127,16 +4063,25 @@
         <v>0.1151726223606743</v>
       </c>
       <c r="D11" t="n">
+        <v>0.003642078107541695</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.802</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.3984921580156879</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.01260142849045298</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.4689903052665779</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.03778691098316127</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.001194927044488221</v>
       </c>
     </row>
     <row r="12">
@@ -3152,16 +4097,25 @@
         <v>0.2837866988423584</v>
       </c>
       <c r="D12" t="n">
+        <v>0.008974123380021215</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.854</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3531062163145815</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01116619899518184</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.425997177021305</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.1421719676796928</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.004495872372956736</v>
       </c>
     </row>
     <row r="13">
@@ -3177,16 +4131,25 @@
         <v>0.2812259673833272</v>
       </c>
       <c r="D13" t="n">
+        <v>0.008893145941155369</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.843</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3638007696528417</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01150439046625244</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.33802186805081</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.138225500229572</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.004371074114415748</v>
       </c>
     </row>
     <row r="14">
@@ -3202,16 +4165,25 @@
         <v>0.249951552043917</v>
       </c>
       <c r="D14" t="n">
+        <v>0.007904162091528928</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.929</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2568248430350927</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008121514637061242</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.562771137550531</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.1552357921031292</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.004908986774262684</v>
       </c>
     </row>
     <row r="15">
@@ -3227,16 +4199,25 @@
         <v>0.2412587644923226</v>
       </c>
       <c r="D15" t="n">
+        <v>0.007629272012738961</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.93</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2551470164434614</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.008068457101577723</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.465805418843277</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.1507932728499854</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.004768501980371837</v>
       </c>
     </row>
     <row r="16">
@@ -3252,16 +4233,25 @@
         <v>0.2406305182214003</v>
       </c>
       <c r="D16" t="n">
+        <v>0.007609405121262743</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.977</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.1499033021650958</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.004740358636221526</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.818802375635329</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.1827047255316989</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.005777630719560866</v>
       </c>
     </row>
     <row r="17">
@@ -3277,16 +4267,25 @@
         <v>0.22263524986397</v>
       </c>
       <c r="D17" t="n">
+        <v>0.007040344770108374</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.982</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.132951118836962</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.004204283529925164</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.70606652637486</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.1776637861518861</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.005618222219690417</v>
       </c>
     </row>
   </sheetData>
@@ -3300,7 +4299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3326,22 +4325,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -3358,16 +4372,25 @@
         <v>0.05315408096491288</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001680879627821253</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.977</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1499033021650958</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.004740358636221526</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.3864293354781042</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01663410484360461</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.000526016581438295</v>
       </c>
     </row>
     <row r="3">
@@ -3383,16 +4406,25 @@
         <v>0.05335542000583734</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001687246527333604</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.99</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.09949874371066199</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.003146426544510454</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.4165216687218372</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.0176875060844701</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0005593280535501208</v>
       </c>
     </row>
     <row r="4">
@@ -3408,16 +4440,25 @@
         <v>0.0545255034812074</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001724247815680554</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.965</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1837797594948911</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.005811626278418117</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.3819431714085249</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.0162863896468356</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0005150208614498579</v>
       </c>
     </row>
     <row r="5">
@@ -3433,16 +4474,25 @@
         <v>0.05500499711847644</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001739410735853841</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.973</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.1620833119108812</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.00512552436341883</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.4105920795296721</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01744610278833408</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0005516942110455014</v>
       </c>
     </row>
     <row r="6">
@@ -3458,16 +4508,25 @@
         <v>0.04372475216226996</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001382698069591453</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.981</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1365247230357931</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.004317290817167638</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.3426974472260394</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01268307526870297</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0004010740558445348</v>
       </c>
     </row>
     <row r="7">
@@ -3483,16 +4542,25 @@
         <v>0.05878885135734507</v>
       </c>
       <c r="D7" t="n">
+        <v>0.001859066713142918</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.914</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2803640490505157</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.008865889690267975</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.3366474636412899</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.01793600792932335</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0005671863718750216</v>
       </c>
     </row>
     <row r="8">
@@ -3508,16 +4576,25 @@
         <v>0.05536924698809405</v>
       </c>
       <c r="D8" t="n">
+        <v>0.001750929328107951</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.892</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.3103804117530615</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.009815090422405694</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.3119202453360088</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.01582296923095633</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0005003662211658486</v>
       </c>
     </row>
     <row r="9">
@@ -3533,16 +4610,25 @@
         <v>0.05905076878347479</v>
       </c>
       <c r="D9" t="n">
+        <v>0.001867349269397506</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.903</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2959577672574247</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.009359006357514668</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.3290113281486962</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.01690928137206849</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.000534718427323935</v>
       </c>
     </row>
     <row r="10">
@@ -3558,16 +4644,25 @@
         <v>0.05651385495802745</v>
       </c>
       <c r="D10" t="n">
+        <v>0.001867349269397506</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.903</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2959577672574247</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.009359006357514668</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.3065071733369172</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.01563743146139269</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0004944990017277628</v>
       </c>
     </row>
     <row r="11">
@@ -3583,16 +4678,25 @@
         <v>0.04609947433327773</v>
       </c>
       <c r="D11" t="n">
+        <v>0.001457793378296298</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.91</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2861817604250837</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.009049861877399014</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.2651319783128735</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.01048871332128108</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0003316822381979765</v>
       </c>
     </row>
     <row r="12">
@@ -3608,16 +4712,25 @@
         <v>0.061969058945075</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001959633707236682</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.878</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3272858078194042</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01034968598557463</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.3236882551135196</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.01594831803482609</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.00050433009838791</v>
       </c>
     </row>
     <row r="13">
@@ -3633,16 +4746,25 @@
         <v>0.06130252530540887</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001938556062852012</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.889</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.314132137801913</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.009933730417119242</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.31574376711427</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.01524258332279588</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0004820128072493253</v>
       </c>
     </row>
     <row r="14">
@@ -3658,16 +4780,25 @@
         <v>0.05844038793421615</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001848047332159454</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.925</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2633913438213185</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008329165624478841</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.3547261270866406</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.01700195441075498</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0005376490061233171</v>
       </c>
     </row>
     <row r="15">
@@ -3683,16 +4814,25 @@
         <v>0.05719744868749978</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001808742142031078</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.929</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2568248430350926</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.00812151463706124</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.3458956577937753</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.01628858257086621</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0005150902077965826</v>
       </c>
     </row>
     <row r="16">
@@ -3708,16 +4848,25 @@
         <v>0.0603760920856326</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001909259672106649</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.962</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.19119623427254</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.006046155803483731</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.4128563615024848</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.02100165184654449</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0006641305446096163</v>
       </c>
     </row>
     <row r="17">
@@ -3733,16 +4882,25 @@
         <v>0.0588136562554363</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001859851112893885</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.963</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.1887617546008724</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.005969170796685247</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.402608771908793</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.02029082098555849</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0006416520990910736</v>
       </c>
     </row>
   </sheetData>
@@ -3756,7 +4914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3782,22 +4940,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -3814,16 +4987,25 @@
         <v>0.2211169833005414</v>
       </c>
       <c r="D2" t="n">
+        <v>0.006992332965751268</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.748</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.434161260363013</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.01372938454556503</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.8461248262565002</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.04369181657245631</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001381656554792532</v>
       </c>
     </row>
     <row r="3">
@@ -3839,16 +5021,25 @@
         <v>0.2205405305699111</v>
       </c>
       <c r="D3" t="n">
+        <v>0.006974103929829115</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.756</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.4294927240361588</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.01358175246424408</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.8617713898302011</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.04358038265252433</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001378132704836673</v>
       </c>
     </row>
     <row r="4">
@@ -3864,16 +5055,25 @@
         <v>0.2145860836537885</v>
       </c>
       <c r="D4" t="n">
+        <v>0.006785807785213984</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.747</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.4347309512790641</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.01374739975413533</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.8278875629949257</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.04211290006402665</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.00133172683077375</v>
       </c>
     </row>
     <row r="5">
@@ -3889,16 +5089,25 @@
         <v>0.2160817029901082</v>
       </c>
       <c r="D5" t="n">
+        <v>0.006833103421367582</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.748</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.4341612603630131</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.01372938454556503</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.8425744317025112</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.04319364663916223</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001365903038282297</v>
       </c>
     </row>
     <row r="6">
@@ -3914,16 +5123,25 @@
         <v>0.1168461845280176</v>
       </c>
       <c r="D6" t="n">
+        <v>0.003695000790088622</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.913</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.2818350581457176</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.00891240708226459</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.6731198141985628</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.02253880599801875</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0007127396269440377</v>
       </c>
     </row>
     <row r="7">
@@ -3939,16 +5157,25 @@
         <v>0.1577758779929803</v>
       </c>
       <c r="D7" t="n">
+        <v>0.004989311342906535</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.9409999999999999</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.235624701591323</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.007451107300260814</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.003961821151475</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.5532713718852504</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01749597699323439</v>
       </c>
     </row>
     <row r="8">
@@ -3964,16 +5191,25 @@
         <v>0.3004186003289533</v>
       </c>
       <c r="D8" t="n">
+        <v>0.00950007028519302</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.759</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.4276903085177405</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01352475508096173</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.5883706616179023</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.3245794507609422</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0102641034609105</v>
       </c>
     </row>
     <row r="9">
@@ -3989,16 +5225,25 @@
         <v>3.101617740537887</v>
       </c>
       <c r="D9" t="n">
+        <v>0.09808176491284885</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.9429999999999999</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2318426190328259</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.007331507348424336</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.007666381215</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.810816402776553</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0256402659699838</v>
       </c>
     </row>
     <row r="10">
@@ -4014,16 +5259,25 @@
         <v>1.281558002912803</v>
       </c>
       <c r="D10" t="n">
+        <v>0.04052642242821161</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.8</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.4000000000000001</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01264911064067352</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.6171752835047785</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.5075250706277616</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0160493519282155</v>
       </c>
     </row>
     <row r="11">
@@ -4039,16 +5293,25 @@
         <v>5.39248353407139</v>
       </c>
       <c r="D11" t="n">
+        <v>0.1705253021261979</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.945</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.22798026230356</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.007209368904418751</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.8332852061215322</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>1.381407823173029</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.043683950988019</v>
       </c>
     </row>
     <row r="12">
@@ -4064,16 +5327,25 @@
         <v>0.3982483405375749</v>
       </c>
       <c r="D12" t="n">
+        <v>0.01259371830481102</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.772</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.4195426080864732</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01326710217040632</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.241777312210993</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.308728950557776</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.009762866633960834</v>
       </c>
     </row>
     <row r="13">
@@ -4089,16 +5361,25 @@
         <v>0.1996703376631755</v>
       </c>
       <c r="D13" t="n">
+        <v>0.006314130481905368</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.751</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.4324338099640221</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01367475776750725</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.7753284455679708</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.07857206132815622</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.002484666742514083</v>
       </c>
     </row>
     <row r="14">
@@ -4114,16 +5395,25 @@
         <v>0.3901904305867085</v>
       </c>
       <c r="D14" t="n">
+        <v>0.01233890481855829</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.781</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.4135686158305535</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.01307818794787718</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.156657041928417</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.2986083439388252</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.009442824951776228</v>
       </c>
     </row>
     <row r="15">
@@ -4139,16 +5429,25 @@
         <v>0.2041897834755501</v>
       </c>
       <c r="D15" t="n">
+        <v>0.01233890481855829</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.748</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.434161260363013</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.01372938454556503</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.7581702868681188</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.0809410303113519</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.002559580119445997</v>
       </c>
     </row>
     <row r="16">
@@ -4164,16 +5463,25 @@
         <v>0.1402718433813974</v>
       </c>
       <c r="D16" t="n">
+        <v>0.004435785166756307</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.824</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.380820167533181</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.01204259108331758</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.592924954315272</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.04839004375599893</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.001530227543441658</v>
       </c>
     </row>
     <row r="17">
@@ -4189,16 +5497,25 @@
         <v>0.3529854206713839</v>
       </c>
       <c r="D17" t="n">
+        <v>0.01116237910154255</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.85</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.3570714214271425</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.01129158979063622</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.76042271675366</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.1745163225041519</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.005518690679896197</v>
       </c>
     </row>
     <row r="18">
@@ -4214,16 +5531,25 @@
         <v>0.353195684711693</v>
       </c>
       <c r="D18" t="n">
+        <v>0.01116902823431661</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.845</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.3619046835839513</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.01144443096007835</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.651100572282642</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.1689655965896018</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.005343161314323201</v>
       </c>
     </row>
     <row r="19">
@@ -4239,16 +5565,25 @@
         <v>0.3143061166412839</v>
       </c>
       <c r="D19" t="n">
+        <v>0.009939232111090089</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.9320000000000001</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.251745903640953</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.007960904471226871</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.939819873964713</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.2039514959288978</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.006449512593338757</v>
       </c>
     </row>
     <row r="20">
@@ -4264,16 +5599,25 @@
         <v>0.3048118852238131</v>
       </c>
       <c r="D20" t="n">
+        <v>0.009638998151970722</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.915</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2788816953476869</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.00881901355027874</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.819266584064926</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.1987169120857546</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.006283980517864255</v>
       </c>
     </row>
     <row r="21">
@@ -4289,16 +5633,25 @@
         <v>0.3046679630394685</v>
       </c>
       <c r="D21" t="n">
+        <v>0.009634446932887168</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.983</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.1292710331048685</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.004087909000944127</v>
+      </c>
+      <c r="H21" t="n">
         <v>2.458605195274581</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.2525158167256527</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.007985251260707043</v>
       </c>
     </row>
     <row r="22">
@@ -4314,16 +5667,25 @@
         <v>0.2786397875109929</v>
       </c>
       <c r="D22" t="n">
+        <v>0.008811363752800771</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.987</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.1132740040786058</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.003582038525755969</v>
+      </c>
+      <c r="H22" t="n">
         <v>2.305936418477654</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.2432836178285609</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.007693303497441998</v>
       </c>
     </row>
   </sheetData>
@@ -4337,7 +5699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4363,22 +5725,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -4395,16 +5772,25 @@
         <v>0.068261448103121</v>
       </c>
       <c r="D2" t="n">
+        <v>0.002158616523872428</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.847</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.3599874997829786</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.01138380428503583</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.3450615460078086</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01713754419094104</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0005419367314516124</v>
       </c>
     </row>
     <row r="3">
@@ -4420,16 +5806,25 @@
         <v>0.06858390770772844</v>
       </c>
       <c r="D3" t="n">
+        <v>0.002168813591911996</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.847</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.3599874997829786</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.01138380428503583</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.3456232132488624</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.01714100593389621</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0005420462013757363</v>
       </c>
     </row>
     <row r="4">
@@ -4445,16 +5840,25 @@
         <v>0.06964325853063097</v>
       </c>
       <c r="D4" t="n">
+        <v>0.002202313206327452</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.861</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.3459465276599839</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.01093978976031989</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.3409948657881293</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01683659889654548</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0005324200056376137</v>
       </c>
     </row>
     <row r="5">
@@ -4470,16 +5874,25 @@
         <v>0.07036405209219906</v>
       </c>
       <c r="D5" t="n">
+        <v>0.002225106700100852</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.863</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.3438473498516456</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.0108734079294396</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.3422112202584437</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01704495612370637</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0005390088396854686</v>
       </c>
     </row>
     <row r="6">
@@ -4495,16 +5908,25 @@
         <v>0.05549453639151384</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001754891326922854</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.894</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.3078376195334157</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.009734680272099337</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.3006278343334792</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.012758769872086</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0004034677293772692</v>
       </c>
     </row>
     <row r="7">
@@ -4520,16 +5942,25 @@
         <v>0.352461346546515</v>
       </c>
       <c r="D7" t="n">
+        <v>0.0111458064225691</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.954</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2094850830011531</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.006624499981130651</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.6591385792018509</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>1.487693342826771</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.04704499423202317</v>
       </c>
     </row>
     <row r="8">
@@ -4545,16 +5976,25 @@
         <v>1.172397763796515</v>
       </c>
       <c r="D8" t="n">
+        <v>0.03707447257285085</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.92</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2712931993250107</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.008579044235810887</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.646755588152095</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>2.026165507387208</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.06407297919814298</v>
       </c>
     </row>
     <row r="9">
@@ -4570,16 +6010,25 @@
         <v>0.09507750502141622</v>
       </c>
       <c r="D9" t="n">
+        <v>0.003006614701137714</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.948</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2220270253820467</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.007021111023192841</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.6110550241475585</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.2197672471126644</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.006949650559810824</v>
       </c>
     </row>
     <row r="10">
@@ -4595,16 +6044,25 @@
         <v>1.454302830517778</v>
       </c>
       <c r="D10" t="n">
+        <v>0.04598909352066011</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.9350000000000001</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.246525860712421</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.007795832219846705</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.5928346235124726</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.4455800557706919</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01409047856180239</v>
       </c>
     </row>
     <row r="11">
@@ -4620,16 +6078,25 @@
         <v>2.291718421120734</v>
       </c>
       <c r="D11" t="n">
+        <v>0.07247049966506447</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.925</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2633913438213185</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.008329165624478841</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.489643113789857</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>14.20346875247747</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.4491531193285913</v>
       </c>
     </row>
     <row r="12">
@@ -4645,16 +6112,25 @@
         <v>0.07379112629881587</v>
       </c>
       <c r="D12" t="n">
+        <v>0.002333480302134088</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.911</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2847437444440176</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.009004387819280108</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.42579406411127</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.02267435334571866</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0007170260104393026</v>
       </c>
     </row>
     <row r="13">
@@ -4670,16 +6146,25 @@
         <v>0.06975149193362712</v>
       </c>
       <c r="D13" t="n">
+        <v>0.002205735847051239</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.9</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.009486832980505138</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.3945375662485125</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.02010667078098682</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0006358287583107492</v>
       </c>
     </row>
     <row r="14">
@@ -4695,16 +6180,25 @@
         <v>0.07276362641056071</v>
       </c>
       <c r="D14" t="n">
+        <v>0.00230098790270954</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.912</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2832948993540124</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008958571314668427</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.4161507135888061</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.02131602589219992</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0006740719248247456</v>
       </c>
     </row>
     <row r="15">
@@ -4720,16 +6214,25 @@
         <v>0.07045819935150503</v>
       </c>
       <c r="D15" t="n">
+        <v>0.00230098790270954</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.903</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2959577672574247</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.009359006357514668</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.3877119819350259</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.019873466018458</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0006284541762028517</v>
       </c>
     </row>
     <row r="16">
@@ -4745,16 +6248,25 @@
         <v>0.0576816457816746</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001824053798571352</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.921</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.26973876250921</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.008529888627643386</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.3351403633652896</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.01324432439962847</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0004188223117296811</v>
       </c>
     </row>
     <row r="17">
@@ -4770,16 +6282,25 @@
         <v>0.07822340493731357</v>
       </c>
       <c r="D17" t="n">
+        <v>0.002473641259355716</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.867</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.339574734042449</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.01073829595420055</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.399587225185851</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01892534746011465</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0005984720348404494</v>
       </c>
     </row>
     <row r="18">
@@ -4795,16 +6316,25 @@
         <v>0.07721214377658693</v>
       </c>
       <c r="D18" t="n">
+        <v>0.002441662373584098</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.874</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.331849363416596</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.01049399828473399</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.3896182196966052</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.01790283101415251</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0005661372256982409</v>
       </c>
     </row>
     <row r="19">
@@ -4820,16 +6350,25 @@
         <v>0.0739361914941296</v>
       </c>
       <c r="D19" t="n">
+        <v>0.002338067666398174</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.929</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2568248430350927</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.008121514637061242</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.4403316820564502</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.02622272580513901</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0008292354000231197</v>
       </c>
     </row>
     <row r="20">
@@ -4845,16 +6384,25 @@
         <v>0.07244747482615348</v>
       </c>
       <c r="D20" t="n">
+        <v>0.002290990311783562</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.926</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2617708921939184</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.008277922444671732</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.4292437792637788</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.02475147102147339</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0007827102386751031</v>
       </c>
     </row>
     <row r="21">
@@ -4870,16 +6418,25 @@
         <v>0.07863387236694123</v>
       </c>
       <c r="D21" t="n">
+        <v>0.002486621379185099</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.964</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.1862900963551203</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.005891010100144116</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.5580931344984846</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.03075251872038147</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.000972480029433722</v>
       </c>
     </row>
     <row r="22">
@@ -4895,16 +6452,25 @@
         <v>0.07638419997179205</v>
       </c>
       <c r="D22" t="n">
+        <v>0.002415480491606321</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.961</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.1935949379503503</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.006122009474020765</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.5441908675234393</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.02928563548909994</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0009260931087101502</v>
       </c>
     </row>
   </sheetData>
@@ -4918,7 +6484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4944,22 +6510,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -4976,16 +6557,25 @@
         <v>0.04362274889490837</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001379472443055036</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.982</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.132951118836962</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.004204283529925163</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.3568948244578514</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.02373103884266051</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.000750441339847334</v>
       </c>
     </row>
     <row r="3">
@@ -5001,16 +6591,25 @@
         <v>0.04362568993532783</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001379565446919197</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.99</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.09949874371066199</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.003146426544510454</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.3914473323963442</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.02446743662223207</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0007737282823207015</v>
       </c>
     </row>
     <row r="4">
@@ -5026,16 +6625,25 @@
         <v>0.04239728854845468</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001340719984284909</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.989</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1043024448419116</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.003298332912245215</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.3535814933057373</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.02296674297957061</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.000726272182511251</v>
       </c>
     </row>
     <row r="5">
@@ -5051,16 +6659,25 @@
         <v>0.04264308053841005</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001348492609473751</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.993</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.08337265738837882</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.002636474919281425</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.3875471005359194</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.02393878532196302</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0007570108603521036</v>
       </c>
     </row>
     <row r="6">
@@ -5076,16 +6693,25 @@
         <v>0.03685057528363933</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001165317509838057</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.994</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.07722693830523131</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.002442130217658346</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.3192978018348528</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01798420690963761</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0005687105574619281</v>
       </c>
     </row>
     <row r="7">
@@ -5101,16 +6727,25 @@
         <v>0.03771433431259356</v>
       </c>
       <c r="D7" t="n">
+        <v>0.001192631968648364</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.9350000000000001</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.246525860712421</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.007795832219846705</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.2412384615705158</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.01470085615229553</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0004648818899575303</v>
       </c>
     </row>
     <row r="8">
@@ -5126,16 +6761,25 @@
         <v>0.03791854404072719</v>
       </c>
       <c r="D8" t="n">
+        <v>0.001199089647261024</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.9370000000000001</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.242962960140018</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.007683163410991595</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.2411495970037556</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.01636701897464022</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0005175705846705674</v>
       </c>
     </row>
     <row r="9">
@@ -5151,16 +6795,25 @@
         <v>0.03692034615021132</v>
       </c>
       <c r="D9" t="n">
+        <v>0.001167523858364969</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.948</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2220270253820467</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.00702111102319284</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.2372590833625757</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.01381343187038674</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0004368190701398189</v>
       </c>
     </row>
     <row r="10">
@@ -5176,16 +6829,25 @@
         <v>0.0376928764037381</v>
       </c>
       <c r="D10" t="n">
+        <v>0.001167523858364969</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.948</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2220270253820467</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.00702111102319284</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.2371402880036405</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.01565184203017502</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0004949547039250697</v>
       </c>
     </row>
     <row r="11">
@@ -5201,16 +6863,25 @@
         <v>0.03114242806502951</v>
       </c>
       <c r="D11" t="n">
+        <v>0.0009848100455344361</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.952</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2137662274541982</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.006759881655768834</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.201605445867367</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.01083466834265262</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0003426222965530394</v>
       </c>
     </row>
     <row r="12">
@@ -5226,16 +6897,25 @@
         <v>0.04571483203280569</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001445629920756913</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.925</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2633913438213185</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.008329165624478841</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.2596981466726012</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.01061796313989331</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0003357694763377592</v>
       </c>
     </row>
     <row r="13">
@@ -5251,16 +6931,25 @@
         <v>0.04276240496898398</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001352265979284913</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.9340000000000001</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.2482820976228451</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.007851369307324678</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.2554577509080025</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.01055399103789303</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0003337465008474642</v>
       </c>
     </row>
     <row r="14">
@@ -5276,16 +6965,25 @@
         <v>0.04919741828510996</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001555758967809626</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.9330000000000001</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2500219990320852</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007906389820898032</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.2920204046444758</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.01184168218059118</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0003744668701849746</v>
       </c>
     </row>
     <row r="15">
@@ -5301,16 +6999,25 @@
         <v>0.04645045823309299</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001468892463750943</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.9419999999999999</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2337434491060658</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007391616873188166</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.2871257117373891</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.01190424769353528</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0003764453654237757</v>
       </c>
     </row>
     <row r="16">
@@ -5326,16 +7033,25 @@
         <v>0.05664234341596427</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001791188172038893</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.9419999999999999</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2337434491060659</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007391616873188167</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.3540530276359149</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.01616330394899972</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0005111285499243317</v>
       </c>
     </row>
     <row r="17">
@@ -5351,16 +7067,25 @@
         <v>0.05397966897839691</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001706987013136686</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.956</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2050950998927083</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.006485676526007137</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.3481358986483711</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01628431094013707</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.00051495512697231</v>
       </c>
     </row>
   </sheetData>
@@ -5374,7 +7099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5400,22 +7125,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -5432,16 +7172,25 @@
         <v>0.1910764707641766</v>
       </c>
       <c r="D2" t="n">
+        <v>0.006042368548813722</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.967</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1786365024288149</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.005648982209212558</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.397366948960108</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.05216006830405648</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001649446187507746</v>
       </c>
     </row>
     <row r="3">
@@ -5457,16 +7206,25 @@
         <v>0.1922061009551573</v>
       </c>
       <c r="D3" t="n">
+        <v>0.006078090591985622</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.979</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1433840995368733</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.004534203347888138</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.494474152492815</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.05446291044650613</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001722268450127374</v>
       </c>
     </row>
     <row r="4">
@@ -5482,16 +7240,25 @@
         <v>0.1821680086880878</v>
       </c>
       <c r="D4" t="n">
+        <v>0.005760658242716994</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.977</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1499033021650958</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.004740358636221526</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.366641021979363</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.05192286668663126</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.00164194521375035</v>
       </c>
     </row>
     <row r="5">
@@ -5507,16 +7274,25 @@
         <v>0.1846393383807014</v>
       </c>
       <c r="D5" t="n">
+        <v>0.005838808549495622</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.982</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.132951118836962</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.004204283529925163</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.457052963326151</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.05445855165916852</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001722130613169143</v>
       </c>
     </row>
     <row r="6">
@@ -5532,16 +7308,25 @@
         <v>0.0980819340195552</v>
       </c>
       <c r="D6" t="n">
+        <v>0.003101623088161484</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.07381596019828</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.02794305392116906</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0008836369517179337</v>
       </c>
     </row>
     <row r="7">
@@ -5557,16 +7342,25 @@
         <v>0.3128138982403252</v>
       </c>
       <c r="D7" t="n">
+        <v>0.00989204402195565</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.709</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.4542235132619183</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.0143638086871136</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.067236893748283</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.1721019711709059</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.005442342187046981</v>
       </c>
     </row>
     <row r="8">
@@ -5582,16 +7376,25 @@
         <v>0.1940963688759104</v>
       </c>
       <c r="D8" t="n">
+        <v>0.006137866112160925</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.694</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.4608296865437382</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.0145727142289966</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.6617400626568319</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.08373521085568941</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.002647939866584354</v>
       </c>
     </row>
     <row r="9">
@@ -5607,16 +7410,25 @@
         <v>0.2865592765973284</v>
       </c>
       <c r="D9" t="n">
+        <v>0.009061799986977431</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.698</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.4591252552408764</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.01451881537867329</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.9964072154807427</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.1686797786800971</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.005334122958422176</v>
       </c>
     </row>
     <row r="10">
@@ -5632,16 +7444,25 @@
         <v>0.1811794483184325</v>
       </c>
       <c r="D10" t="n">
+        <v>0.009061799986977431</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.6929999999999999</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.4612493902434994</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01458598642533305</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.6500414254228359</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.08549168645554971</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.002703484502085044</v>
       </c>
     </row>
     <row r="11">
@@ -5657,16 +7478,25 @@
         <v>0.137726431506568</v>
       </c>
       <c r="D11" t="n">
+        <v>0.004355292175679304</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.75</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.4330127018922193</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.01369306393762915</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.518760390735113</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.05415586815020049</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.001712558920184033</v>
       </c>
     </row>
     <row r="12">
@@ -5682,16 +7512,25 @@
         <v>0.3064416477850226</v>
       </c>
       <c r="D12" t="n">
+        <v>0.009690535769357638</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.862</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3448999855030441</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01090669519148674</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.519160078484577</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.1508235239314625</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.004769458603563348</v>
       </c>
     </row>
     <row r="13">
@@ -5707,16 +7546,25 @@
         <v>0.2923206152857815</v>
       </c>
       <c r="D13" t="n">
+        <v>0.009243989513249022</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.852</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3550999859194591</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01122924752599212</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.425881920956919</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.1472391627320469</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.004656111150094485</v>
       </c>
     </row>
     <row r="14">
@@ -5732,16 +7580,25 @@
         <v>0.2748492111591702</v>
       </c>
       <c r="D14" t="n">
+        <v>0.008691495203635454</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.946</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2260176984220484</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007147307185227175</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.708265390639599</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.1694969834157901</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.005359965241216834</v>
       </c>
     </row>
     <row r="15">
@@ -5757,16 +7614,25 @@
         <v>0.2558993215701368</v>
       </c>
       <c r="D15" t="n">
+        <v>0.00809224707853488</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.9389999999999999</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.239330315672712</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007568289106528635</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.602786765313327</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.166908059603723</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.005278096281869057</v>
       </c>
     </row>
     <row r="16">
@@ -5782,16 +7648,25 @@
         <v>0.2682052889449994</v>
       </c>
       <c r="D16" t="n">
+        <v>0.008481395935697768</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.977</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.1499033021650958</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.004740358636221526</v>
+      </c>
+      <c r="H16" t="n">
         <v>2.071253269807946</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.2110159211157963</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.006672909332843356</v>
       </c>
     </row>
     <row r="17">
@@ -5807,16 +7682,25 @@
         <v>0.246261674499186</v>
       </c>
       <c r="D17" t="n">
+        <v>0.007787477918244331</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.981</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.1365247230357931</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.004317290817167638</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.943395568194572</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.2072111991876463</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.00655259346127794</v>
       </c>
     </row>
   </sheetData>
@@ -5830,7 +7714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5856,22 +7740,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -5888,16 +7787,25 @@
         <v>0.06250132653586485</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001976465486352545</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.991</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.09444045743218316</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.002986469487538756</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.5298933264095201</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.02165629151923705</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0006848320687337725</v>
       </c>
     </row>
     <row r="3">
@@ -5913,16 +7821,25 @@
         <v>0.06260327260712585</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001979689304189451</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.996</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.063118935352238</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.001995995991979944</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.5653423639898791</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.02279827350192038</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0007209447098553153</v>
       </c>
     </row>
     <row r="4">
@@ -5938,16 +7855,25 @@
         <v>0.06122959292548719</v>
       </c>
       <c r="D4" t="n">
+        <v>0.00193624973849472</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.991</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.09444045743218316</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.002986469487538756</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.5229348548246493</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.02109168077735562</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0006669775093763453</v>
       </c>
     </row>
     <row r="5">
@@ -5963,16 +7889,25 @@
         <v>0.06154264714</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001946149381984474</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.993</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.08337265738837882</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.002636474919281425</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.5567405292142262</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.02252421364328295</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0007122781761701348</v>
       </c>
     </row>
     <row r="6">
@@ -5988,16 +7923,25 @@
         <v>0.0496675941286578</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001570627233473647</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.996</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.063118935352238</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.001995995991979944</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.4562666077290083</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.0159209769165935</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0005034654963140007</v>
       </c>
     </row>
     <row r="7">
@@ -6013,16 +7957,25 @@
         <v>0.06827520314997422</v>
       </c>
       <c r="D7" t="n">
+        <v>0.002159051496646212</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.915</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2788816953476869</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.00881901355027874</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.3824260851852584</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.02066348405715456</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0006534367401518534</v>
       </c>
     </row>
     <row r="8">
@@ -6038,16 +7991,25 @@
         <v>0.06567160802137968</v>
       </c>
       <c r="D8" t="n">
+        <v>0.002076718589533435</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.908</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.289025950392002</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.009139803061335623</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.3543906432376949</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.01807753712184466</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0005716619179127395</v>
       </c>
     </row>
     <row r="9">
@@ -6063,16 +8025,25 @@
         <v>0.06642845885844018</v>
       </c>
       <c r="D9" t="n">
+        <v>0.002100652314474597</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.918</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2743647207641682</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.008676174272108646</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.3745213643866985</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.02028169351283802</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.000641363463060296</v>
       </c>
     </row>
     <row r="10">
@@ -6088,16 +8059,25 @@
         <v>0.06344775892895328</v>
       </c>
       <c r="D10" t="n">
+        <v>0.002100652314474597</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.906</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2918287168871494</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.009228434320078352</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.3486234835120859</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.01837458927299022</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0005810555317274651</v>
       </c>
     </row>
     <row r="11">
@@ -6113,16 +8093,25 @@
         <v>0.05165908239273082</v>
       </c>
       <c r="D11" t="n">
+        <v>0.001633603621953303</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.921</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.26973876250921</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.008529888627643386</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.3014739966471181</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.01221146998006292</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0003861605871576977</v>
       </c>
     </row>
     <row r="12">
@@ -6138,16 +8127,25 @@
         <v>0.07295649203517923</v>
       </c>
       <c r="D12" t="n">
+        <v>0.002307086849270996</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.867</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.339574734042449</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01073829595420055</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.3448321535808863</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.01671967564766067</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0005287225678585862</v>
       </c>
     </row>
     <row r="13">
@@ -6163,16 +8161,25 @@
         <v>0.06785004745545897</v>
       </c>
       <c r="D13" t="n">
+        <v>0.002145606893097623</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.872</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3340898082851376</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01056484737230027</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.3364611855967137</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.01601405749759013</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0005064089627328121</v>
       </c>
     </row>
     <row r="14">
@@ -6188,16 +8195,25 @@
         <v>0.06964698822958856</v>
       </c>
       <c r="D14" t="n">
+        <v>0.00220243114976438</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.914</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2803640490505157</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008865889690267975</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.3877441483683979</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.01854663395491796</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.000586496062269574</v>
       </c>
     </row>
     <row r="15">
@@ -6213,16 +8229,25 @@
         <v>0.06441756089212232</v>
       </c>
       <c r="D15" t="n">
+        <v>0.002037062137316947</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.9330000000000001</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2500219990320852</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007906389820898032</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.3781773427769739</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.01817554506724808</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0005747612012754219</v>
       </c>
     </row>
     <row r="16">
@@ -6238,16 +8263,25 @@
         <v>0.07173660993192579</v>
       </c>
       <c r="D16" t="n">
+        <v>0.00226851079003942</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.951</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2158680152315298</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.006826346021115542</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.470108309780171</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.02450613824633559</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0007749521351338495</v>
       </c>
     </row>
     <row r="17">
@@ -6263,16 +8297,25 @@
         <v>0.06778174492625903</v>
       </c>
       <c r="D17" t="n">
+        <v>0.002143446977475403</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.962</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.19119623427254</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.006046155803483731</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.4585376786666921</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.0242342272752728</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0007663535552403838</v>
       </c>
     </row>
   </sheetData>
@@ -6286,7 +8329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6312,22 +8355,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -6344,16 +8402,25 @@
         <v>0.04109749100098602</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001299616776813891</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.99</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.09949874371066199</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.003146426544510454</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.3518604771260466</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01760005904696263</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0005565627354185429</v>
       </c>
     </row>
     <row r="3">
@@ -6369,16 +8436,25 @@
         <v>0.0411006133341897</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001299715513659267</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.99</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.09949874371066199</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.003146426544510454</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.3518882559302364</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.01760671667127187</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.000556773267984772</v>
       </c>
     </row>
     <row r="4">
@@ -6394,16 +8470,25 @@
         <v>0.04220961922764076</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001334785359277821</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.989</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1043024448419115</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.003298332912245215</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.3482381417971228</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01706489125595223</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0005396392439190045</v>
       </c>
     </row>
     <row r="5">
@@ -6419,16 +8504,25 @@
         <v>0.04240968275470074</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001341111923500183</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.989</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.1043024448419115</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.003298332912245215</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.3507179244974686</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01724205921219559</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0005452417866202651</v>
       </c>
     </row>
     <row r="6">
@@ -6444,16 +8538,25 @@
         <v>0.03892643161206434</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001230961850769033</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.981</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1365247230357931</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.004317290817167638</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.3119356490744613</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01353623850590316</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0004280534462992856</v>
       </c>
     </row>
     <row r="7">
@@ -6469,16 +8572,25 @@
         <v>3.432053455508767</v>
       </c>
       <c r="D7" t="n">
+        <v>0.1085310597085906</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.972</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.1649727250184102</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.005216895628628198</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.969864915592686</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>56.75195985236549</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.794654548119082</v>
       </c>
     </row>
     <row r="8">
@@ -6494,16 +8606,25 @@
         <v>11.19117077227618</v>
       </c>
       <c r="D8" t="n">
+        <v>0.3538958932429829</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.967</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.1786365024288149</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.005648982209212558</v>
+      </c>
+      <c r="H8" t="n">
         <v>8.02656882152194</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>113.0925748724059</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.576301230499292</v>
       </c>
     </row>
     <row r="9">
@@ -6519,16 +8640,25 @@
         <v>6.864697848179523</v>
       </c>
       <c r="D9" t="n">
+        <v>0.2170808064910405</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.971</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.1678064361101802</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.005306505441436953</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.666853759501887</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>10.74854513777433</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.3398988416849522</v>
       </c>
     </row>
     <row r="10">
@@ -6544,16 +8674,25 @@
         <v>7.419347965498647</v>
       </c>
       <c r="D10" t="n">
+        <v>0.2346203832431209</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.97</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.1705872210923198</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.005394441583704471</v>
+      </c>
+      <c r="H10" t="n">
         <v>11.13305839237389</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>175.291072140795</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5.543190414577997</v>
       </c>
     </row>
     <row r="11">
@@ -6569,16 +8708,25 @@
         <v>8.310710424717119</v>
       </c>
       <c r="D11" t="n">
+        <v>0.2628077391621141</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.958</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2005891323078097</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.006343185319695461</v>
+      </c>
+      <c r="H11" t="n">
         <v>8.075050414557481</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>198.5766943697649</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6.279546444355916</v>
       </c>
     </row>
     <row r="12">
@@ -6594,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
         <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -6605,6 +8753,15 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6619,10 +8776,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
         <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -6630,6 +8787,15 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6644,10 +8810,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -6655,6 +8821,15 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6669,16 +8844,25 @@
         <v>0.003833461325089525</v>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.999</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.03160696125855823</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.0009994998749374613</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.0001475526955585068</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.004663692332113559</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0001474789007574128</v>
       </c>
     </row>
     <row r="16">
@@ -6694,10 +8878,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
         <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -6705,6 +8889,15 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6719,16 +8912,25 @@
         <v>0.05945759883436505</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001880214365211661</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.953</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.006692607862410586</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.3799687913911737</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01635495473060558</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0005171890797765917</v>
       </c>
     </row>
     <row r="18">
@@ -6744,16 +8946,25 @@
         <v>0.06033479872036613</v>
       </c>
       <c r="D18" t="n">
+        <v>0.001907953861241695</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.947</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.2240334796408786</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.00708456067798138</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.3734028712085323</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.01571935662919113</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0004970897030071084</v>
       </c>
     </row>
     <row r="19">
@@ -6769,16 +8980,25 @@
         <v>0.06812975264502663</v>
       </c>
       <c r="D19" t="n">
+        <v>0.002154451947821653</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.956</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2050950998927083</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.006485676526007137</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.4359011523828368</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.01977287235692687</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0006252731253167072</v>
       </c>
     </row>
     <row r="20">
@@ -6794,16 +9014,25 @@
         <v>0.0688621534713342</v>
       </c>
       <c r="D20" t="n">
+        <v>0.002177612495534866</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.947</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2240334796408786</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.00708456067798138</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.4284838436741464</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.01900505968874364</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0006009927568388062</v>
       </c>
     </row>
     <row r="21">
@@ -6819,16 +9048,25 @@
         <v>0.07607922446772256</v>
       </c>
       <c r="D21" t="n">
+        <v>0.002405836319372146</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.955</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.2073041244162788</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.006555532015023648</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.4885610033498586</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.02134046735064782</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0006748448316050629</v>
       </c>
     </row>
     <row r="22">
@@ -6844,16 +9082,25 @@
         <v>0.07732967411065876</v>
       </c>
       <c r="D22" t="n">
+        <v>0.002445379009082373</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.9429999999999999</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.2318426190328259</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.007331507348424336</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.4803115135307024</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.02073253770879337</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.000655620408351158</v>
       </c>
     </row>
   </sheetData>
@@ -6867,7 +9114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6893,22 +9140,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -6925,16 +9187,25 @@
         <v>0.1334872956026913</v>
       </c>
       <c r="D2" t="n">
+        <v>0.004221238928006836</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.978</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1466833323864712</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.004638534251247909</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.078069222648629</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.05146885988885889</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001627588258208749</v>
       </c>
     </row>
     <row r="3">
@@ -6950,16 +9221,25 @@
         <v>0.1335596394147876</v>
       </c>
       <c r="D3" t="n">
+        <v>0.004223526640215269</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.98</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.14</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.004427188724235731</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.097417989390275</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.05123984775848666</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001620346258770912</v>
       </c>
     </row>
     <row r="4">
@@ -6975,16 +9255,25 @@
         <v>0.1263097882759017</v>
       </c>
       <c r="D4" t="n">
+        <v>0.003994266217254817</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.978</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1466833323864712</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.004638534251247909</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.055033148717015</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.04727049149645951</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001494824192444332</v>
       </c>
     </row>
     <row r="5">
@@ -7000,16 +9289,25 @@
         <v>0.1269483741229648</v>
       </c>
       <c r="D5" t="n">
+        <v>0.004014460074837491</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.982</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.132951118836962</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.004204283529925163</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.07272705383854</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.04775159138994446</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001510037906899101</v>
       </c>
     </row>
     <row r="6">
@@ -7025,16 +9323,25 @@
         <v>0.09055400744936913</v>
       </c>
       <c r="D6" t="n">
+        <v>0.00286356914795861</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.994</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.07722693830523129</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.002442130217658346</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.8577418586941317</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.02406946575526333</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0007611433385005707</v>
       </c>
     </row>
     <row r="7">
@@ -7050,16 +9357,25 @@
         <v>0.1955058295795215</v>
       </c>
       <c r="D7" t="n">
+        <v>0.006182437173120072</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.988</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.1088852607105296</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.003443254274665176</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.288333852699185</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.7020719244930613</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.02220146362655829</v>
       </c>
     </row>
     <row r="8">
@@ -7075,16 +9391,25 @@
         <v>1.474948730899104</v>
       </c>
       <c r="D8" t="n">
+        <v>0.04664197421615939</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.889</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.314132137801913</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.009933730417119242</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.679780922618574</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>29.3590426592171</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.9284144472517268</v>
       </c>
     </row>
     <row r="9">
@@ -7100,16 +9425,25 @@
         <v>2.774581811420297</v>
       </c>
       <c r="D9" t="n">
+        <v>0.0877399807856392</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.989</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.1043024448419116</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.003298332912245215</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.304310059221839</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>1.107914912498038</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0350353457715995</v>
       </c>
     </row>
     <row r="10">
@@ -7125,16 +9459,25 @@
         <v>1.668199311901122</v>
       </c>
       <c r="D10" t="n">
+        <v>0.05275309416733182</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.888</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.3153664535108324</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.00997276290703835</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.7923766262981474</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.6495560742848263</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.02054076662737579</v>
       </c>
     </row>
     <row r="11">
@@ -7150,16 +9493,25 @@
         <v>2.944149891243608</v>
       </c>
       <c r="D11" t="n">
+        <v>0.09310219429266826</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.954</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2094850830011531</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.006624499981130651</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.096571778989737</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>1.838678993530124</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0581441350546119</v>
       </c>
     </row>
     <row r="12">
@@ -7175,16 +9527,25 @@
         <v>0.190046940620907</v>
       </c>
       <c r="D12" t="n">
+        <v>0.006009811947088407</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.229</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.4201892430798294</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01328755056434405</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.3878436841607302</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.6025920897734859</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01905563503684873</v>
       </c>
     </row>
     <row r="13">
@@ -7200,16 +9561,25 @@
         <v>0.139774336316086</v>
       </c>
       <c r="D13" t="n">
+        <v>0.004420052611972205</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.337</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.4726848844632119</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01494760850437287</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.3531081900906545</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.4130975494573038</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.01306329152119134</v>
       </c>
     </row>
     <row r="14">
@@ -7225,16 +9595,25 @@
         <v>0.1953387506880821</v>
       </c>
       <c r="D14" t="n">
+        <v>0.006177153674661227</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.251</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.4335885146080325</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.01371127273450572</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.4105692569953182</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.5818890984074865</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01840094896589514</v>
       </c>
     </row>
     <row r="15">
@@ -7250,16 +9629,25 @@
         <v>0.1396564574778357</v>
       </c>
       <c r="D15" t="n">
+        <v>0.006177153674661227</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.349</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.4766539625346673</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.01507312177354114</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.3759524437109506</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.4096413292265061</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.01295399624094661</v>
       </c>
     </row>
     <row r="16">
@@ -7275,16 +9663,25 @@
         <v>0.1144448271393614</v>
       </c>
       <c r="D16" t="n">
+        <v>0.003619063201846343</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.391</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.4879743845736166</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.01543110495071561</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.3310151389305504</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.3314377154266934</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01048098083231077</v>
       </c>
     </row>
     <row r="17">
@@ -7300,16 +9697,25 @@
         <v>0.3180281163113491</v>
       </c>
       <c r="D17" t="n">
+        <v>0.0100569320751681</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.969</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.1733176274935703</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.005480784615363023</v>
+      </c>
+      <c r="H17" t="n">
         <v>2.222763426251101</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.2242908587791323</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.007092699720972308</v>
       </c>
     </row>
     <row r="18">
@@ -7325,16 +9731,25 @@
         <v>0.3194810899859549</v>
       </c>
       <c r="D18" t="n">
+        <v>0.01010287913708829</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.96</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.1959591794226543</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.006196773353931867</v>
+      </c>
+      <c r="H18" t="n">
         <v>2.084385765057155</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.21787738214347</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.006889887782082642</v>
       </c>
     </row>
     <row r="19">
@@ -7350,16 +9765,25 @@
         <v>0.2869265353978697</v>
       </c>
       <c r="D19" t="n">
+        <v>0.009073413729981952</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.993</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.08337265738837883</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.002636474919281425</v>
+      </c>
+      <c r="H19" t="n">
         <v>2.549873917335145</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.2583618090612452</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.008170117770350642</v>
       </c>
     </row>
     <row r="20">
@@ -7375,16 +9799,25 @@
         <v>0.2878391915580403</v>
       </c>
       <c r="D20" t="n">
+        <v>0.009102274451849175</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.986</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.1174904251417961</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.003715373467095873</v>
+      </c>
+      <c r="H20" t="n">
         <v>2.391874895333331</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.2517714618787106</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.007961712693669814</v>
       </c>
     </row>
     <row r="21">
@@ -7400,16 +9833,25 @@
         <v>0.295509663283496</v>
       </c>
       <c r="D21" t="n">
+        <v>0.009344836065652793</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.995</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.07053367989832944</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.002230470802319547</v>
+      </c>
+      <c r="H21" t="n">
         <v>2.857847067845787</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.2870533290074207</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.009077423295971302</v>
       </c>
     </row>
     <row r="22">
@@ -7425,16 +9867,25 @@
         <v>0.2991956305733268</v>
       </c>
       <c r="D22" t="n">
+        <v>0.009461396585820226</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.992</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.08908422980528034</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.002817090697865441</v>
+      </c>
+      <c r="H22" t="n">
         <v>2.681090377355467</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.2801151790345071</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.008858019729348876</v>
       </c>
     </row>
   </sheetData>
@@ -7448,7 +9899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7474,22 +9925,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -7506,16 +9972,25 @@
         <v>0.05402705336372469</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001708485438968315</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.983</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1292710331048685</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.004087909000944127</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.4368384061138604</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.02033045879277274</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0006429055566135903</v>
       </c>
     </row>
     <row r="3">
@@ -7531,16 +10006,25 @@
         <v>0.05400466412016269</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001707777428920873</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.983</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1292710331048685</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.004087909000944127</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.4375211662937508</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.02032366099596609</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0006426905914037902</v>
       </c>
     </row>
     <row r="4">
@@ -7556,16 +10040,25 @@
         <v>0.05049556031746702</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001596809823296109</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.989</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1043024448419115</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.003298332912245215</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.431575701467452</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01923632256425372</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0006083059310873246</v>
       </c>
     </row>
     <row r="5">
@@ -7581,16 +10074,25 @@
         <v>0.05121320429516779</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001619503718482484</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.989</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.1043024448419115</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.003298332912245215</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.4329625226553522</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01942771988893191</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0006143584459277828</v>
       </c>
     </row>
     <row r="6">
@@ -7606,16 +10108,25 @@
         <v>0.04643104879869782</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0014682786835431</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.986</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1174904251417961</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.003715373467095872</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.3817578524033292</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01472967654159007</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.000465793270689765</v>
       </c>
     </row>
     <row r="7">
@@ -7631,16 +10142,25 @@
         <v>4.995924638160655</v>
       </c>
       <c r="D7" t="n">
+        <v>0.1579850087514023</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.984</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.125475097130865</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.003967870965643919</v>
+      </c>
+      <c r="H7" t="n">
         <v>2.462225234599254</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>51.15858795615603</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.617776598195113</v>
       </c>
     </row>
     <row r="8">
@@ -7656,16 +10176,25 @@
         <v>1.332504303338655</v>
       </c>
       <c r="D8" t="n">
+        <v>0.04213748590526058</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.97</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.1705872210923198</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.005394441583704471</v>
+      </c>
+      <c r="H8" t="n">
         <v>3.289048365234755</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>77.92813285415784</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.464303936233369</v>
       </c>
     </row>
     <row r="9">
@@ -7681,16 +10210,25 @@
         <v>6.592927987463462</v>
       </c>
       <c r="D9" t="n">
+        <v>0.2084866888985458</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.962</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.19119623427254</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.006046155803483731</v>
+      </c>
+      <c r="H9" t="n">
         <v>2.658064080883201</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>52.89645016428648</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.672732626567331</v>
       </c>
     </row>
     <row r="10">
@@ -7706,16 +10244,25 @@
         <v>2.327892686874769</v>
       </c>
       <c r="D10" t="n">
+        <v>0.07361443038973427</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.946</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2260176984220484</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.007147307185227175</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.7737629043199131</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.7159810027648752</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0226413073014832</v>
       </c>
     </row>
     <row r="11">
@@ -7731,16 +10278,25 @@
         <v>4.321725296101859</v>
       </c>
       <c r="D11" t="n">
+        <v>0.1366649535724749</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.963</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.1887617546008724</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.005969170796685247</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.952729080834324</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>17.3156692616836</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5475695407708634</v>
       </c>
     </row>
     <row r="12">
@@ -7756,16 +10312,25 @@
         <v>0.049024251285134</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001550282946454602</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.303</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.4595552197505758</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01453241205031016</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.1434459896105584</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.2022047713945915</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.006394276313605708</v>
       </c>
     </row>
     <row r="13">
@@ -7781,16 +10346,25 @@
         <v>0.04608623427378107</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001457374690852642</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.346</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.4756931784249171</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01504273911227606</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.1491582757975061</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.1959361423451224</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.006196044857575521</v>
       </c>
     </row>
     <row r="14">
@@ -7806,16 +10380,25 @@
         <v>0.04752950486080303</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001503014914201818</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.302</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.4591252552408764</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.01451881537867329</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.1361798808116119</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.1937349859455398</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.006126438180486156</v>
       </c>
     </row>
     <row r="15">
@@ -7831,16 +10414,25 @@
         <v>0.04445995371413228</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001503014914201818</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.341</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.474045356479736</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.01499063040702425</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.1457823552688889</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.1905472716239073</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.006025633802623181</v>
       </c>
     </row>
     <row r="16">
@@ -7856,16 +10448,25 @@
         <v>0.04140112351051454</v>
       </c>
       <c r="D16" t="n">
+        <v>0.00130921847983172</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.377</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.4846349141364044</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.01532550162311172</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.1427654815773445</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.173435119872298</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.00548450005060793</v>
       </c>
     </row>
     <row r="17">
@@ -7881,16 +10482,25 @@
         <v>0.07873242518958055</v>
       </c>
       <c r="D17" t="n">
+        <v>0.002489737893078888</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.948</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2220270253820467</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.00702111102319284</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.5045339674130911</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.02546661747080007</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0008053251550796483</v>
       </c>
     </row>
     <row r="18">
@@ -7906,16 +10516,25 @@
         <v>0.0803855407729285</v>
       </c>
       <c r="D18" t="n">
+        <v>0.002542013997867862</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.9429999999999999</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.2318426190328259</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.007331507348424336</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.4918113418555948</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.02383811744844643</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0007538274626769219</v>
       </c>
     </row>
     <row r="19">
@@ -7931,16 +10550,25 @@
         <v>0.07905763866796019</v>
       </c>
       <c r="D19" t="n">
+        <v>0.002500022046253543</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.972</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.1649727250184102</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.005216895628628198</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.5788132119970436</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.03056973467456963</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0009666998903866623</v>
       </c>
     </row>
     <row r="20">
@@ -7956,16 +10584,25 @@
         <v>0.0822903119136839</v>
       </c>
       <c r="D20" t="n">
+        <v>0.002602248150129304</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.96</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.1959591794226543</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.006196773353931868</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.5643682494511154</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.02868809157112805</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0009071971108824303</v>
       </c>
     </row>
     <row r="21">
@@ -7981,16 +10618,25 @@
         <v>0.08474212802669807</v>
       </c>
       <c r="D21" t="n">
+        <v>0.00267978138333956</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.98</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.14</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.004427188724235731</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.6487296693017506</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.03318533653236857</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.001049412483614787</v>
       </c>
     </row>
     <row r="22">
@@ -8006,16 +10652,25 @@
         <v>0.08935157839990061</v>
       </c>
       <c r="D22" t="n">
+        <v>0.002825545002747892</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.969</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.1733176274935703</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.005480784615363023</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.6326257047129396</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.03132739153693387</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0009906591040859392</v>
       </c>
     </row>
   </sheetData>

--- a/Paper_Code/AR_Cov/Results/AR_Full_Results_d1000_n900_Gaussian_noise.xlsx
+++ b/Paper_Code/AR_Cov/Results/AR_Full_Results_d1000_n900_Gaussian_noise.xlsx
@@ -676,31 +676,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09701023433360297</v>
+        <v>0.3192092679118677</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1404676127608929</v>
+        <v>4.305282647903016</v>
       </c>
       <c r="D7" t="n">
-        <v>0.009932560152031335</v>
+        <v>0.1925380932612287</v>
       </c>
       <c r="E7" t="n">
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3307189138830738</v>
+        <v>0.3</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02338535866733714</v>
+        <v>0.01341640786499874</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3554285285107573</v>
+        <v>0.4501162854648471</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3475677373629916</v>
+        <v>2.537602274914292</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02457675040110363</v>
+        <v>0.1134850237313293</v>
       </c>
     </row>
     <row r="8">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5105797088035449</v>
+        <v>0.4653752438516019</v>
       </c>
       <c r="C8" t="n">
-        <v>5.626901226599274</v>
+        <v>5.73985727676363</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3978820014395248</v>
+        <v>0.256694221039806</v>
       </c>
       <c r="E8" t="n">
-        <v>0.865</v>
+        <v>0.89</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3417235724968355</v>
+        <v>0.3128897569432403</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02416350554038052</v>
+        <v>0.01399285531976944</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7777016197895535</v>
+        <v>0.7187631940992384</v>
       </c>
       <c r="I8" t="n">
-        <v>5.398823593111048</v>
+        <v>5.273780578432626</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3817544773118745</v>
+        <v>0.2358506374358702</v>
       </c>
     </row>
     <row r="9">
@@ -744,31 +744,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.918588962206982</v>
+        <v>0.814088451137057</v>
       </c>
       <c r="C9" t="n">
-        <v>15.19569334649525</v>
+        <v>9.653252936357799</v>
       </c>
       <c r="D9" t="n">
-        <v>1.074497781013809</v>
+        <v>0.4317065953939098</v>
       </c>
       <c r="E9" t="n">
-        <v>0.905</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2932149382279149</v>
+        <v>0.251745903640953</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02073342711661533</v>
+        <v>0.01125841907196565</v>
       </c>
       <c r="H9" t="n">
-        <v>1.309763347131119</v>
+        <v>0.7340117163438186</v>
       </c>
       <c r="I9" t="n">
-        <v>7.844376173587502</v>
+        <v>4.991416250453597</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5546811586521905</v>
+        <v>0.2232229208002272</v>
       </c>
     </row>
     <row r="10">
@@ -778,31 +778,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7456005313874172</v>
+        <v>0.7501335818388957</v>
       </c>
       <c r="C10" t="n">
-        <v>7.298755156633351</v>
+        <v>7.895737412744681</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5160999265475724</v>
+        <v>0.3531081117477084</v>
       </c>
       <c r="E10" t="n">
-        <v>0.915</v>
+        <v>0.914</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2788816953476868</v>
+        <v>0.2803640490505157</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01971991379291502</v>
+        <v>0.01253826144248077</v>
       </c>
       <c r="H10" t="n">
-        <v>1.105015242307659</v>
+        <v>0.7444935457730228</v>
       </c>
       <c r="I10" t="n">
-        <v>6.353494208955921</v>
+        <v>4.684701709947612</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4492598839382191</v>
+        <v>0.2095062295550473</v>
       </c>
     </row>
     <row r="11">
@@ -812,31 +812,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7751812284952565</v>
+        <v>0.3612345561859967</v>
       </c>
       <c r="C11" t="n">
-        <v>9.243247268455809</v>
+        <v>5.858129466432136</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6535962823709135</v>
+        <v>0.2619835141587366</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3</v>
+        <v>0.2712931993250107</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02121320343559642</v>
+        <v>0.01213260071048248</v>
       </c>
       <c r="H11" t="n">
-        <v>1.132351555905591</v>
+        <v>0.6429199726724615</v>
       </c>
       <c r="I11" t="n">
-        <v>11.4990908874189</v>
+        <v>7.288040375365805</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8131085143974338</v>
+        <v>0.3259310740416205</v>
       </c>
     </row>
     <row r="12">
@@ -1631,31 +1631,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1507352324667608</v>
+        <v>0.1385783626835291</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6304784255913377</v>
+        <v>0.7113310575415284</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0445815570127453</v>
+        <v>0.03181169198339343</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3882975663070785</v>
+        <v>0.375632799419859</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02745678422539683</v>
+        <v>0.01679880948162697</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2819830304746241</v>
+        <v>0.2671818073870532</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2736835584904898</v>
+        <v>0.2013219743098425</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01935235001078904</v>
+        <v>0.009003392398425484</v>
       </c>
     </row>
     <row r="8">
@@ -1665,31 +1665,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2184756222775454</v>
+        <v>0.1993300909031478</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8518769213233959</v>
+        <v>0.8146113829469257</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06023679478040922</v>
+        <v>0.03643052855028878</v>
       </c>
       <c r="E8" t="n">
-        <v>0.835</v>
+        <v>0.86</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3711805490593493</v>
+        <v>0.3469870314579495</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02624642832844119</v>
+        <v>0.01551773179301666</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3145688995761257</v>
+        <v>0.306522931609106</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3886782897479512</v>
+        <v>0.3668247811546674</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0274837054380766</v>
+        <v>0.0164049029298664</v>
       </c>
     </row>
     <row r="9">
@@ -1699,31 +1699,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1009477266204837</v>
+        <v>0.1165808126322481</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3978417959588429</v>
+        <v>0.478702654701143</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02813166317619326</v>
+        <v>0.0214082335384273</v>
       </c>
       <c r="E9" t="n">
-        <v>0.875</v>
+        <v>0.864</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3307189138830738</v>
+        <v>0.3427885645700568</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02338535866733714</v>
+        <v>0.01532997064576446</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2595990678926621</v>
+        <v>0.2697965690268427</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1733220122476972</v>
+        <v>0.2483901355413556</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01225571701892446</v>
+        <v>0.01110834456021715</v>
       </c>
     </row>
     <row r="10">
@@ -1733,31 +1733,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4353553035113187</v>
+        <v>0.241109038194317</v>
       </c>
       <c r="C10" t="n">
-        <v>2.907330028075271</v>
+        <v>1.884087270571752</v>
       </c>
       <c r="D10" t="n">
-        <v>0.20557927779993</v>
+        <v>0.08425894425080953</v>
       </c>
       <c r="E10" t="n">
-        <v>0.875</v>
+        <v>0.882</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3307189138830738</v>
+        <v>0.3226081214104816</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02338535866733714</v>
+        <v>0.01442747379134684</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7210775310707082</v>
+        <v>0.4436030898167633</v>
       </c>
       <c r="I10" t="n">
-        <v>4.572176157994568</v>
+        <v>2.904222161719929</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3233016766097415</v>
+        <v>0.129880763507343</v>
       </c>
     </row>
     <row r="11">
@@ -1767,31 +1767,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1634886337197918</v>
+        <v>0.1591298691077289</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6569316399052689</v>
+        <v>0.6512841795813273</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04645208173530148</v>
+        <v>0.02912631396428057</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.836</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3923009049186607</v>
+        <v>0.3702755730533679</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0277398630133604</v>
+        <v>0.0165592270351004</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2508245296844749</v>
+        <v>0.2452824115704626</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2953202900185564</v>
+        <v>0.2714051516889467</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02088229796940991</v>
+        <v>0.01213760737240253</v>
       </c>
     </row>
     <row r="12">
@@ -2416,31 +2416,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1750085472870502</v>
+        <v>0.2148988079356148</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1339743424806335</v>
+        <v>0.4596857466422533</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00947341660730649</v>
+        <v>0.02055777155559648</v>
       </c>
       <c r="E7" t="n">
-        <v>0.695</v>
+        <v>0.668</v>
       </c>
       <c r="F7" t="n">
-        <v>0.460407428263272</v>
+        <v>0.470930992821666</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03255572146336186</v>
+        <v>0.02106067425321421</v>
       </c>
       <c r="H7" t="n">
-        <v>0.436242215102278</v>
+        <v>0.4793162294458301</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06436527784872037</v>
+        <v>0.4943955362638081</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004551312443978645</v>
+        <v>0.02211004053716675</v>
       </c>
     </row>
     <row r="8">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1222383032958485</v>
+        <v>0.1749150535028544</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09416751518302184</v>
+        <v>0.6538439193643967</v>
       </c>
       <c r="D8" t="n">
-        <v>0.006658648855340192</v>
+        <v>0.02924078900747364</v>
       </c>
       <c r="E8" t="n">
-        <v>0.555</v>
+        <v>0.556</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4969657935914704</v>
+        <v>0.4968541033341679</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03514078826662828</v>
+        <v>0.02221999099909809</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2391024564646535</v>
+        <v>0.2678797558244591</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03388991822284541</v>
+        <v>0.3183049042657822</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002396379098923154</v>
+        <v>0.01423502807019703</v>
       </c>
     </row>
     <row r="9">
@@ -2484,31 +2484,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.17365285311324</v>
+        <v>0.2131275876043333</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1277426310465047</v>
+        <v>0.6051852725676564</v>
       </c>
       <c r="D9" t="n">
-        <v>0.009032768065959469</v>
+        <v>0.02706470816886037</v>
       </c>
       <c r="E9" t="n">
-        <v>0.675</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4683748498798798</v>
+        <v>0.4624932431938871</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03311910324872942</v>
+        <v>0.02068332661831747</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4130929876546067</v>
+        <v>0.4402866047795285</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05074954622442206</v>
+        <v>0.3140632046551154</v>
       </c>
       <c r="J9" t="n">
-        <v>0.003588534827742899</v>
+        <v>0.01404533349680533</v>
       </c>
     </row>
     <row r="10">
@@ -2518,31 +2518,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1193739374494666</v>
+        <v>0.1366892225308357</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1108181001272906</v>
+        <v>0.2768427489951494</v>
       </c>
       <c r="D10" t="n">
-        <v>0.007836023007821701</v>
+        <v>0.01238078411662131</v>
       </c>
       <c r="E10" t="n">
-        <v>0.605</v>
+        <v>0.572</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4888506929523574</v>
+        <v>0.494788843851597</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03456696399743547</v>
+        <v>0.02212762978721399</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2474673260352145</v>
+        <v>0.2568658562750573</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09355456803395948</v>
+        <v>0.1854004216644345</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006615306946779096</v>
+        <v>0.008291358917976006</v>
       </c>
     </row>
     <row r="11">
@@ -2552,31 +2552,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.138964895822326</v>
+        <v>0.2010462993729551</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6087716656559937</v>
+        <v>0.9885210283214843</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04304665729795828</v>
+        <v>0.04420800433029667</v>
       </c>
       <c r="E11" t="n">
-        <v>0.725</v>
+        <v>0.676</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4465142774872938</v>
+        <v>0.468</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03157332735078772</v>
+        <v>0.02092959626939803</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2637387752836542</v>
+        <v>0.3016717426787278</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3147701966211897</v>
+        <v>0.6393198042829654</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02225761405462661</v>
+        <v>0.02859125083477143</v>
       </c>
     </row>
     <row r="12">
@@ -3201,31 +3201,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1746975510236397</v>
+        <v>0.1520379557427764</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4162256190854466</v>
+        <v>0.2703253945954135</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02943159577588882</v>
+        <v>0.01208931916719598</v>
       </c>
       <c r="E7" t="n">
-        <v>0.455</v>
+        <v>0.494</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4979708826829135</v>
+        <v>0.4999639987039066</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03521185879785388</v>
+        <v>0.02235906974809104</v>
       </c>
       <c r="H7" t="n">
-        <v>0.38414944634531</v>
+        <v>0.3308762107180422</v>
       </c>
       <c r="I7" t="n">
-        <v>1.62961523611466</v>
+        <v>1.099370745454058</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1152311984181593</v>
+        <v>0.04916535438619783</v>
       </c>
     </row>
     <row r="8">
@@ -3235,31 +3235,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1504332037976291</v>
+        <v>0.1220396938006822</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5141998743580656</v>
+        <v>0.3347532218127814</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03635942180438589</v>
+        <v>0.01497061919320889</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6</v>
+        <v>0.622</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4898979485566356</v>
+        <v>0.4848876158451564</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03464101615137755</v>
+        <v>0.02168483340955148</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2526930105273134</v>
+        <v>0.243779744475714</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1977914804377626</v>
+        <v>0.1282043206158736</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01398596970784683</v>
+        <v>0.005733471518125419</v>
       </c>
     </row>
     <row r="9">
@@ -3269,31 +3269,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1546900077503523</v>
+        <v>0.1579013924441338</v>
       </c>
       <c r="C9" t="n">
-        <v>0.228013917891084</v>
+        <v>0.339514587900435</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01612301875456982</v>
+        <v>0.01518355395796401</v>
       </c>
       <c r="E9" t="n">
-        <v>0.48</v>
+        <v>0.486</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4995998398718719</v>
+        <v>0.4998039615689336</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03532704346531139</v>
+        <v>0.02235191266983656</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2674685281343174</v>
+        <v>0.3104177156072045</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09317243479741942</v>
+        <v>1.052028888358312</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006588286046491672</v>
+        <v>0.04704816217325446</v>
       </c>
     </row>
     <row r="10">
@@ -3303,31 +3303,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1072224871937351</v>
+        <v>0.1273758686200206</v>
       </c>
       <c r="C10" t="n">
-        <v>0.111481366008263</v>
+        <v>0.4034241870319087</v>
       </c>
       <c r="D10" t="n">
-        <v>0.007882922988038221</v>
+        <v>0.01804167811941874</v>
       </c>
       <c r="E10" t="n">
-        <v>0.61</v>
+        <v>0.618</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4877499359302879</v>
+        <v>0.4858765275252551</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03448912872196107</v>
+        <v>0.02172905888436036</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2372469589010412</v>
+        <v>0.2453929070309908</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04111364606801439</v>
+        <v>0.165142887999248</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002907173793399661</v>
+        <v>0.007385414471339055</v>
       </c>
     </row>
     <row r="11">
@@ -3337,31 +3337,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1352133082623577</v>
+        <v>0.1729583481709845</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4351071755986167</v>
+        <v>0.6205062698403053</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03076672344087077</v>
+        <v>0.027749883996555</v>
       </c>
       <c r="E11" t="n">
-        <v>0.51</v>
+        <v>0.508</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4998999899979995</v>
+        <v>0.4999359959034756</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03534826728426727</v>
+        <v>0.02235781742478456</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2218007721243059</v>
+        <v>0.2443177092384244</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1635309407390362</v>
+        <v>0.2996119415153387</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01156338371303879</v>
+        <v>0.01339905336197977</v>
       </c>
     </row>
     <row r="12">
@@ -3986,31 +3986,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1000676117405435</v>
+        <v>0.1178493029941166</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2628147803746453</v>
+        <v>0.8623195524151333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01858381133989649</v>
+        <v>0.03856410275054862</v>
       </c>
       <c r="E7" t="n">
-        <v>0.875</v>
+        <v>0.906</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3307189138830738</v>
+        <v>0.2918287168871494</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02338535866733714</v>
+        <v>0.01305097697492414</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2999938376892313</v>
+        <v>0.2845680986169798</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2934349915683697</v>
+        <v>0.2165394843376212</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02074898723754116</v>
+        <v>0.009683940135833439</v>
       </c>
     </row>
     <row r="8">
@@ -4020,31 +4020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4361197822157679</v>
+        <v>0.4358845467241647</v>
       </c>
       <c r="C8" t="n">
-        <v>4.351050327744699</v>
+        <v>5.152776729734628</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3076657192032227</v>
+        <v>0.2304391808113138</v>
       </c>
       <c r="E8" t="n">
-        <v>0.845</v>
+        <v>0.88</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3619046835839513</v>
+        <v>0.3249615361854384</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02559052559053838</v>
+        <v>0.01453272169966796</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6586787321954073</v>
+        <v>0.6072233932355336</v>
       </c>
       <c r="I8" t="n">
-        <v>4.588165617408658</v>
+        <v>4.458512393075705</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3244323021276625</v>
+        <v>0.1993907357888508</v>
       </c>
     </row>
     <row r="9">
@@ -4054,31 +4054,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4417800421652974</v>
+        <v>0.2265544497641324</v>
       </c>
       <c r="C9" t="n">
-        <v>5.212346116954845</v>
+        <v>3.306837279629353</v>
       </c>
       <c r="D9" t="n">
-        <v>0.368568528519014</v>
+        <v>0.1478862589556343</v>
       </c>
       <c r="E9" t="n">
-        <v>0.925</v>
+        <v>0.92</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2633913438213185</v>
+        <v>0.2712931993250107</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01862458053218917</v>
+        <v>0.01213260071048248</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5103844224614542</v>
+        <v>0.3813281225441088</v>
       </c>
       <c r="I9" t="n">
-        <v>3.299999237761903</v>
+        <v>2.103188061520371</v>
       </c>
       <c r="J9" t="n">
-        <v>0.233345183893188</v>
+        <v>0.09405742950051117</v>
       </c>
     </row>
     <row r="10">
@@ -4088,31 +4088,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6968332104899264</v>
+        <v>0.4308263392160021</v>
       </c>
       <c r="C10" t="n">
-        <v>6.00065523960145</v>
+        <v>4.387024009069885</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4243104011484772</v>
+        <v>0.1961936780640783</v>
       </c>
       <c r="E10" t="n">
-        <v>0.91</v>
+        <v>0.912</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2861817604250837</v>
+        <v>0.2832948993540124</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02023610634484806</v>
+        <v>0.01266933305269066</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9323011423444291</v>
+        <v>0.5379881038566048</v>
       </c>
       <c r="I10" t="n">
-        <v>5.365932475089926</v>
+        <v>3.412485622392916</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3794287240525202</v>
+        <v>0.1526109964782248</v>
       </c>
     </row>
     <row r="11">
@@ -4122,31 +4122,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1122719185479252</v>
+        <v>0.1079491740879148</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3983128763395962</v>
+        <v>0.380974353445524</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02816497358936472</v>
+        <v>0.01703769103976446</v>
       </c>
       <c r="E11" t="n">
-        <v>0.885</v>
+        <v>0.898</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3190219428189854</v>
+        <v>0.3026483107502832</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02255825791146116</v>
+        <v>0.01353484392226227</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2651766953351383</v>
+        <v>0.2690104851248146</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2918598901903729</v>
+        <v>0.2947048787521724</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02063761075099738</v>
+        <v>0.01317960284381382</v>
       </c>
     </row>
     <row r="12">
@@ -4771,31 +4771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2274094275079037</v>
+        <v>0.2457029892112875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1614017745904191</v>
+        <v>0.2904089141015325</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01141282893084279</v>
+        <v>0.01298748146405848</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4963869458396343</v>
+        <v>0.495354418573207</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03509985754956849</v>
+        <v>0.0221529230576915</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4736654440115612</v>
+        <v>0.5137554027496831</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1428008620095493</v>
+        <v>0.540860806599347</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01009754578862367</v>
+        <v>0.02418803059843013</v>
       </c>
     </row>
     <row r="8">
@@ -4805,31 +4805,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1809383163768857</v>
+        <v>0.1962811921990648</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1322891832092369</v>
+        <v>0.2257532645258345</v>
       </c>
       <c r="D8" t="n">
-        <v>0.009354257852488095</v>
+        <v>0.01009599291244515</v>
       </c>
       <c r="E8" t="n">
-        <v>0.445</v>
+        <v>0.434</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4969657935914704</v>
+        <v>0.4956248581336494</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03514078826662827</v>
+        <v>0.02216501748251059</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2546153725170346</v>
+        <v>0.2849510084756343</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03590287961419848</v>
+        <v>0.3364838041907107</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0025387169639324</v>
+        <v>0.01504801318996315</v>
       </c>
     </row>
     <row r="9">
@@ -4839,31 +4839,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2025855382176017</v>
+        <v>0.2299988331729116</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1692551301633221</v>
+        <v>0.3928962754464752</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01196814502890968</v>
+        <v>0.017570855600096</v>
       </c>
       <c r="E9" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4828043081829324</v>
+        <v>0.4898979485566357</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03413942003022313</v>
+        <v>0.02190890230020665</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4413060856338054</v>
+        <v>0.4699748501096261</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05400552446356364</v>
+        <v>0.3374718697934444</v>
       </c>
       <c r="J9" t="n">
-        <v>0.003818767256972184</v>
+        <v>0.01509220082704199</v>
       </c>
     </row>
     <row r="10">
@@ -4873,31 +4873,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1705570514756062</v>
+        <v>0.2111499933034287</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1386278160655507</v>
+        <v>0.7858496549700872</v>
       </c>
       <c r="D10" t="n">
-        <v>0.009802466880103234</v>
+        <v>0.0351442649721574</v>
       </c>
       <c r="E10" t="n">
-        <v>0.47</v>
+        <v>0.446</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4990991885387112</v>
+        <v>0.49707544698969</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03529164207004259</v>
+        <v>0.0222298897883008</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2641075659942443</v>
+        <v>0.2814384994978897</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0989181695134515</v>
+        <v>0.2602355682927963</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006994570844552197</v>
+        <v>0.01163808841731963</v>
       </c>
     </row>
     <row r="11">
@@ -4907,31 +4907,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4280589549123818</v>
+        <v>0.5135742297963054</v>
       </c>
       <c r="C11" t="n">
-        <v>4.14278253363468</v>
+        <v>4.179041022585354</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2929389622514268</v>
+        <v>0.1868923961452217</v>
       </c>
       <c r="E11" t="n">
-        <v>0.59</v>
+        <v>0.554</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4918333050943175</v>
+        <v>0.4970754469896899</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0347778665245584</v>
+        <v>0.0222298897883008</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2881484551365411</v>
+        <v>0.5698254441460348</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3422129643963667</v>
+        <v>4.998876119600572</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02419811077346215</v>
+        <v>0.2235565362905449</v>
       </c>
     </row>
     <row r="12">
@@ -5556,31 +5556,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.111171744681346</v>
+        <v>0.09431302674468585</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5038346462840841</v>
+        <v>0.3327639097471674</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03562648949842014</v>
+        <v>0.01488165445306542</v>
       </c>
       <c r="E7" t="n">
-        <v>0.88</v>
+        <v>0.882</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3249615361854384</v>
+        <v>0.3226081214104816</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02297825058615211</v>
+        <v>0.01442747379134684</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4118702958902912</v>
+        <v>0.3528298658640367</v>
       </c>
       <c r="I7" t="n">
-        <v>1.776722032379503</v>
+        <v>1.192453614432131</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1256332197379091</v>
+        <v>0.05332814683771139</v>
       </c>
     </row>
     <row r="8">
@@ -5590,31 +5590,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1022245084714253</v>
+        <v>0.0858310112354409</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3154264065779088</v>
+        <v>0.2050884914815529</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02230401510565443</v>
+        <v>0.009171836167112778</v>
       </c>
       <c r="E8" t="n">
-        <v>0.835</v>
+        <v>0.842</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3711805490593493</v>
+        <v>0.3647410040014695</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02624642832844119</v>
+        <v>0.01631171358257617</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2688829070492074</v>
+        <v>0.2593455852497967</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2079003420040131</v>
+        <v>0.1347037742098385</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01470077416420401</v>
+        <v>0.006024135919179637</v>
       </c>
     </row>
     <row r="9">
@@ -5624,31 +5624,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0752106936564082</v>
+        <v>0.1029067055691716</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07913595449469521</v>
+        <v>0.6263285816490226</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005595757005886903</v>
+        <v>0.02801026569636484</v>
       </c>
       <c r="E9" t="n">
-        <v>0.87</v>
+        <v>0.858</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3363034344160047</v>
+        <v>0.3490501396647765</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02378024390118823</v>
+        <v>0.01560999679692472</v>
       </c>
       <c r="H9" t="n">
-        <v>0.285180122707419</v>
+        <v>0.3304809420220002</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0987257748276766</v>
+        <v>1.109540798477553</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006980966485854627</v>
+        <v>0.04962017298410406</v>
       </c>
     </row>
     <row r="10">
@@ -5658,31 +5658,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06762168885390807</v>
+        <v>0.2868228634827424</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05636110671267325</v>
+        <v>3.571786458810959</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00398533207517099</v>
+        <v>0.1597351464602912</v>
       </c>
       <c r="E10" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3570714214271425</v>
+        <v>0.3666060555964671</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02524876234590519</v>
+        <v>0.01639512122553535</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2528713624901582</v>
+        <v>0.2610820915583872</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04354686475245253</v>
+        <v>0.1495082610306347</v>
       </c>
       <c r="J10" t="n">
-        <v>0.003079228336587263</v>
+        <v>0.00668621269724564</v>
       </c>
     </row>
     <row r="11">
@@ -5692,31 +5692,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07112158703392017</v>
+        <v>0.1378861889544547</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1390333875665589</v>
+        <v>1.23446335533338</v>
       </c>
       <c r="D11" t="n">
-        <v>0.009831145115965119</v>
+        <v>0.05520687956515829</v>
       </c>
       <c r="E11" t="n">
-        <v>0.885</v>
+        <v>0.87</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3190219428189854</v>
+        <v>0.3363034344160047</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02255825791146116</v>
+        <v>0.01503994680841658</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2436067695751763</v>
+        <v>0.5093930646071236</v>
       </c>
       <c r="I11" t="n">
-        <v>0.178525208855316</v>
+        <v>5.393323758390149</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01262363857943386</v>
+        <v>0.2411967709685005</v>
       </c>
     </row>
     <row r="12">
@@ -6341,31 +6341,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2952394944761251</v>
+        <v>0.3063792508970258</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2082558968674439</v>
+        <v>0.3073528480793911</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01472591568970559</v>
+        <v>0.01374523722767368</v>
       </c>
       <c r="E7" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4995998398718719</v>
+        <v>0.4983974317750845</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03532704346531139</v>
+        <v>0.02228901074520805</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5609504529276914</v>
+        <v>0.6088799081004034</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1691135929674398</v>
+        <v>0.6466351669598247</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01195813683780983</v>
+        <v>0.02891840379928188</v>
       </c>
     </row>
     <row r="8">
@@ -6375,31 +6375,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2315318127486337</v>
+        <v>0.239595027953193</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1671363270060557</v>
+        <v>0.1938759167091503</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01181832302085943</v>
+        <v>0.00867039457923495</v>
       </c>
       <c r="E8" t="n">
-        <v>0.375</v>
+        <v>0.394</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4841229182759271</v>
+        <v>0.4886348329785751</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03423265984407288</v>
+        <v>0.021852414054287</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3013910658784208</v>
+        <v>0.3376844557121518</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04237182250544043</v>
+        <v>0.3999130722679302</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002996140302482969</v>
+        <v>0.01788465629363755</v>
       </c>
     </row>
     <row r="9">
@@ -6409,31 +6409,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.267607653048296</v>
+        <v>0.293487534419097</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2088627496789376</v>
+        <v>0.5199288417538195</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01476882666352452</v>
+        <v>0.02325192467248543</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.552</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4957569969249047</v>
+        <v>0.4972886485734417</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03505531343462785</v>
+        <v>0.02223942445298439</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5239443131343829</v>
+        <v>0.5581505168130158</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06380515064613436</v>
+        <v>0.3993008030524821</v>
       </c>
       <c r="J9" t="n">
-        <v>0.004511705469651083</v>
+        <v>0.01785727478191211</v>
       </c>
     </row>
     <row r="10">
@@ -6443,31 +6443,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2199499940843088</v>
+        <v>0.2868961534315138</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1769915834593435</v>
+        <v>1.496296707650348</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01251519488770465</v>
+        <v>0.06691642305630617</v>
       </c>
       <c r="E10" t="n">
-        <v>0.395</v>
+        <v>0.414</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4888506929523574</v>
+        <v>0.4925484747717732</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03456696399743547</v>
+        <v>0.0220274374360705</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3134453975715398</v>
+        <v>0.3341340192391359</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1170116465032088</v>
+        <v>0.3100804789475805</v>
       </c>
       <c r="J10" t="n">
-        <v>0.008273972872022214</v>
+        <v>0.01386722058844965</v>
       </c>
     </row>
     <row r="11">
@@ -6477,31 +6477,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5941976398726042</v>
+        <v>0.9524422801518954</v>
       </c>
       <c r="C11" t="n">
-        <v>6.077425712698871</v>
+        <v>9.059637882989826</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4297388933606858</v>
+        <v>0.4051593231579507</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.538</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4957569969249047</v>
+        <v>0.4985539088203</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03505531343462785</v>
+        <v>0.02229600861140845</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3444918336187762</v>
+        <v>0.6891792561137379</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4067824417248587</v>
+        <v>5.9135321829406</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02876386230112692</v>
+        <v>0.264461198963758</v>
       </c>
     </row>
     <row r="12">
@@ -7296,31 +7296,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1191201837029648</v>
+        <v>0.1075097868603681</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3780885708318605</v>
+        <v>0.2487461776953004</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02673489923243389</v>
+        <v>0.01112426724939867</v>
       </c>
       <c r="E7" t="n">
-        <v>0.85</v>
+        <v>0.848</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3570714214271425</v>
+        <v>0.3590208907570701</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02524876234590519</v>
+        <v>0.01605590234150669</v>
       </c>
       <c r="H7" t="n">
-        <v>0.489158351769413</v>
+        <v>0.4181883366374536</v>
       </c>
       <c r="I7" t="n">
-        <v>2.122957391559233</v>
+        <v>1.422785333038259</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1501157567741639</v>
+        <v>0.0636288944412645</v>
       </c>
     </row>
     <row r="8">
@@ -7330,31 +7330,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1178836150212024</v>
+        <v>0.103586676014458</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3383323046991081</v>
+        <v>0.2214117556957421</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02392370669472125</v>
+        <v>0.009901834735065111</v>
       </c>
       <c r="E8" t="n">
-        <v>0.825</v>
+        <v>0.806</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3799671038392666</v>
+        <v>0.3954288810898871</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02686773157525585</v>
+        <v>0.01768411716767337</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3183590206043531</v>
+        <v>0.3069989991959761</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2440501639060755</v>
+        <v>0.1581771388135139</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01725695258476744</v>
+        <v>0.007073896697468748</v>
       </c>
     </row>
     <row r="9">
@@ -7364,31 +7364,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09308715915316253</v>
+        <v>0.1448467426138032</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08235196550904897</v>
+        <v>1.129880078742612</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00582316332554892</v>
+        <v>0.05052977324982589</v>
       </c>
       <c r="E9" t="n">
-        <v>0.85</v>
+        <v>0.828</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3570714214271425</v>
+        <v>0.3773804446443933</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02524876234590519</v>
+        <v>0.0168769665520792</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3380554459496925</v>
+        <v>0.3911600057031289</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1169713153442722</v>
+        <v>1.302433351242061</v>
       </c>
       <c r="J9" t="n">
-        <v>0.008271121028424491</v>
+        <v>0.05824659019080217</v>
       </c>
     </row>
     <row r="10">
@@ -7398,31 +7398,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.08571753460723894</v>
+        <v>0.4019370032422082</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06651699990895439</v>
+        <v>5.345775233266794</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004703462169980661</v>
+        <v>0.2390703362803869</v>
       </c>
       <c r="E10" t="n">
-        <v>0.82</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3841874542459709</v>
+        <v>0.3891066691795452</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02716615541441225</v>
+        <v>0.01740137925567971</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2996712763595708</v>
+        <v>0.30939065968465</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05166597938243071</v>
+        <v>0.1773040497662859</v>
       </c>
       <c r="J10" t="n">
-        <v>0.003653336437796111</v>
+        <v>0.007929278159268419</v>
       </c>
     </row>
     <row r="11">
@@ -7432,31 +7432,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08014879524845953</v>
+        <v>0.1794495591356185</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07532727230537256</v>
+        <v>2.061946884978453</v>
       </c>
       <c r="D11" t="n">
-        <v>0.005326442505541456</v>
+        <v>0.09221306801611519</v>
       </c>
       <c r="E11" t="n">
-        <v>0.865</v>
+        <v>0.854</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3417235724968355</v>
+        <v>0.3531062163145815</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02416350554038052</v>
+        <v>0.01579139005914299</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2913140746323445</v>
+        <v>0.6109074661988184</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2126611861710019</v>
+        <v>6.49412428743083</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01503741668366903</v>
+        <v>0.2904260672205544</v>
       </c>
     </row>
     <row r="12">
@@ -8251,31 +8251,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.12997949532996</v>
+        <v>0.1322999061147986</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4550402989480751</v>
+        <v>0.7207351534620337</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03217620810993377</v>
+        <v>0.032232255938297</v>
       </c>
       <c r="E7" t="n">
-        <v>0.88</v>
+        <v>0.882</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3249615361854384</v>
+        <v>0.3226081214104815</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02297825058615212</v>
+        <v>0.01442747379134684</v>
       </c>
       <c r="H7" t="n">
-        <v>0.335208031901902</v>
+        <v>0.3175704606081249</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3320571428071146</v>
+        <v>0.2449050542942293</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02347998574203405</v>
+        <v>0.01095248698870347</v>
       </c>
     </row>
     <row r="8">
@@ -8285,13 +8285,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3499178003212549</v>
+        <v>0.4458568694103056</v>
       </c>
       <c r="C8" t="n">
-        <v>2.422722614056619</v>
+        <v>5.020408530486896</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1713123589333434</v>
+        <v>0.2245194949797705</v>
       </c>
       <c r="E8" t="n">
         <v>0.87</v>
@@ -8300,16 +8300,16 @@
         <v>0.3363034344160047</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02378024390118823</v>
+        <v>0.01503994680841658</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7348943467133709</v>
+        <v>0.6824707826927875</v>
       </c>
       <c r="I8" t="n">
-        <v>5.113306384428758</v>
+        <v>5.065355627226974</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3615653618714042</v>
+        <v>0.2265295902538119</v>
       </c>
     </row>
     <row r="9">
@@ -8319,13 +8319,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09756296790512231</v>
+        <v>0.1069508153081268</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3232183746146137</v>
+        <v>0.3677052148953147</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02285499044940872</v>
+        <v>0.01644427712374184</v>
       </c>
       <c r="E9" t="n">
         <v>0.9</v>
@@ -8334,16 +8334,16 @@
         <v>0.3</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02121320343559642</v>
+        <v>0.01341640786499874</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3090819178962676</v>
+        <v>0.321832976387882</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2028450873275785</v>
+        <v>0.2934771245503124</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01434331367797082</v>
+        <v>0.01312469600671342</v>
       </c>
     </row>
     <row r="10">
@@ -8353,31 +8353,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.498452042891642</v>
+        <v>0.3986007675116663</v>
       </c>
       <c r="C10" t="n">
-        <v>3.236731113598691</v>
+        <v>3.620848041613003</v>
       </c>
       <c r="D10" t="n">
-        <v>0.228871451930312</v>
+        <v>0.1619292471448733</v>
       </c>
       <c r="E10" t="n">
-        <v>0.885</v>
+        <v>0.892</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3190219428189854</v>
+        <v>0.3103804117530615</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02255825791146116</v>
+        <v>0.0138806339912844</v>
       </c>
       <c r="H10" t="n">
-        <v>1.043588492826604</v>
+        <v>0.6015390095879347</v>
       </c>
       <c r="I10" t="n">
-        <v>5.994133962933546</v>
+        <v>3.811969876816193</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4238492772530904</v>
+        <v>0.1704764754548501</v>
       </c>
     </row>
     <row r="11">
@@ -8387,31 +8387,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.172224037911293</v>
+        <v>0.168157201074674</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8223584094503157</v>
+        <v>0.7396423267828759</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05814952078881016</v>
+        <v>0.03307781043445247</v>
       </c>
       <c r="E11" t="n">
-        <v>0.87</v>
+        <v>0.878</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3363034344160047</v>
+        <v>0.3272858078194042</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02378024390118823</v>
+        <v>0.0146366662871024</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2957409488124372</v>
+        <v>0.2995999384127089</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3285955941157279</v>
+        <v>0.3284265638331896</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02323521728672535</v>
+        <v>0.01468768244695372</v>
       </c>
     </row>
     <row r="12">
@@ -9036,31 +9036,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2519308141613391</v>
+        <v>0.2749877557817461</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1931432799361489</v>
+        <v>0.3886608391097444</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01365729229834625</v>
+        <v>0.01738144112882994</v>
       </c>
       <c r="E7" t="n">
-        <v>0.605</v>
+        <v>0.59</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4888506929523574</v>
+        <v>0.4918333050943175</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03456696399743547</v>
+        <v>0.02199545407578575</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5277718335165024</v>
+        <v>0.5727171042528969</v>
       </c>
       <c r="I7" t="n">
-        <v>0.154182185102305</v>
+        <v>0.5996432794291947</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01090232686239993</v>
+        <v>0.02681686270109161</v>
       </c>
     </row>
     <row r="8">
@@ -9070,31 +9070,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1987634551712384</v>
+        <v>0.2216142384731321</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1548108065849033</v>
+        <v>0.3402575918434516</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01094677711371441</v>
+        <v>0.01521678210444672</v>
       </c>
       <c r="E8" t="n">
-        <v>0.44</v>
+        <v>0.432</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4963869458396343</v>
+        <v>0.4953544185732071</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03509985754956849</v>
+        <v>0.02215292305769151</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2837610772492498</v>
+        <v>0.3178541140870451</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04033070688060737</v>
+        <v>0.3815783318179014</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002851811632532442</v>
+        <v>0.01706470177371596</v>
       </c>
     </row>
     <row r="9">
@@ -9104,31 +9104,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2392619785883147</v>
+        <v>0.2539014426025789</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1699544479869434</v>
+        <v>0.2557269723538853</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01201759426643841</v>
+        <v>0.01143645787726994</v>
       </c>
       <c r="E9" t="n">
-        <v>0.58</v>
+        <v>0.578</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4935585071701226</v>
+        <v>0.4938785275753543</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0348998567332303</v>
+        <v>0.02208691920571993</v>
       </c>
       <c r="H9" t="n">
-        <v>0.491718854924097</v>
+        <v>0.5240291220358553</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06025218336316476</v>
+        <v>0.370204493359385</v>
       </c>
       <c r="J9" t="n">
-        <v>0.004260472743738908</v>
+        <v>0.01655604825454909</v>
       </c>
     </row>
     <row r="10">
@@ -9138,13 +9138,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1971320880037397</v>
+        <v>0.2051669318781806</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1434303448653221</v>
+        <v>0.1594979404835183</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01014205694821944</v>
+        <v>0.007132964743847252</v>
       </c>
       <c r="E10" t="n">
         <v>0.42</v>
@@ -9153,16 +9153,16 @@
         <v>0.4935585071701227</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0348998567332303</v>
+        <v>0.02207260745811423</v>
       </c>
       <c r="H10" t="n">
-        <v>0.293978095364601</v>
+        <v>0.3134917350070736</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1161419996872051</v>
+        <v>0.2874779856247594</v>
       </c>
       <c r="J10" t="n">
-        <v>0.008212479555938861</v>
+        <v>0.01285640635783339</v>
       </c>
     </row>
     <row r="11">
@@ -9172,31 +9172,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1700824572140024</v>
+        <v>0.324669193310733</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2211615838438941</v>
+        <v>2.367588461152225</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01563848556739747</v>
+        <v>0.1058817748376099</v>
       </c>
       <c r="E11" t="n">
-        <v>0.51</v>
+        <v>0.514</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4998999899979995</v>
+        <v>0.4998039615689336</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03534826728426727</v>
+        <v>0.02235191266983656</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3239354920641507</v>
+        <v>0.6242352512606435</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3999946357673096</v>
+        <v>5.75175575383692</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02828389193893078</v>
+        <v>0.257226337111098</v>
       </c>
     </row>
     <row r="12">
@@ -9821,31 +9821,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1043422560578833</v>
+        <v>0.1063648923952741</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1916396051371641</v>
+        <v>0.3169721751203238</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0135509664336401</v>
+        <v>0.01417542661090023</v>
       </c>
       <c r="E7" t="n">
-        <v>0.82</v>
+        <v>0.854</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3841874542459708</v>
+        <v>0.3531062163145815</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02716615541441224</v>
+        <v>0.01579139005914299</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4568453051628798</v>
+        <v>0.3926827099870275</v>
       </c>
       <c r="I7" t="n">
-        <v>1.954275959012896</v>
+        <v>1.315375464700656</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1381881782927862</v>
+        <v>0.05882537910012085</v>
       </c>
     </row>
     <row r="8">
@@ -9855,31 +9855,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.122463043721173</v>
+        <v>0.09985209131535998</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3953692083681116</v>
+        <v>0.2566233018421862</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02795682483094488</v>
+        <v>0.01147654295059151</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3923009049186607</v>
+        <v>0.375632799419859</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0277398630133604</v>
+        <v>0.01679880948162697</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2996888688259164</v>
+        <v>0.28907517909892</v>
       </c>
       <c r="I8" t="n">
-        <v>0.235581207604545</v>
+        <v>0.152593425505776</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01665810694172896</v>
+        <v>0.006824185447009306</v>
       </c>
     </row>
     <row r="9">
@@ -9889,31 +9889,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09954348393593022</v>
+        <v>0.1020008744720357</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1226178922641171</v>
+        <v>0.1570552507315937</v>
       </c>
       <c r="D9" t="n">
-        <v>0.008670394311475871</v>
+        <v>0.00702372433718234</v>
       </c>
       <c r="E9" t="n">
-        <v>0.82</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3841874542459709</v>
+        <v>0.3858445282753145</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02716615541441225</v>
+        <v>0.01725549187939886</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3179365193537905</v>
+        <v>0.3695705784067608</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1091263502646299</v>
+        <v>1.25659976731637</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00771639822782582</v>
+        <v>0.05619685000459644</v>
       </c>
     </row>
     <row r="10">
@@ -9923,31 +9923,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.08694735652668267</v>
+        <v>0.2538002893898218</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07082503298670331</v>
+        <v>3.632341201124929</v>
       </c>
       <c r="D10" t="n">
-        <v>0.005008086110265882</v>
+        <v>0.1624432368637715</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3923009049186606</v>
+        <v>0.3954288810898871</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02773986301336039</v>
+        <v>0.01768411716767337</v>
       </c>
       <c r="H10" t="n">
-        <v>0.281286989113758</v>
+        <v>0.2888283206038064</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04841230836446159</v>
+        <v>0.1664705580554307</v>
       </c>
       <c r="J10" t="n">
-        <v>0.003423267153740501</v>
+        <v>0.007444789681285365</v>
       </c>
     </row>
     <row r="11">
@@ -9957,31 +9957,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.09077605677325802</v>
+        <v>0.3124504478050089</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2574024345446502</v>
+        <v>4.498533682525609</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01820110069604486</v>
+        <v>0.2011805422639944</v>
       </c>
       <c r="E11" t="n">
-        <v>0.845</v>
+        <v>0.846</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3619046835839513</v>
+        <v>0.3609487498246808</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02559052559053838</v>
+        <v>0.01614211882003103</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2709840579917557</v>
+        <v>0.5639762384925678</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1970666001795375</v>
+        <v>5.938135913174257</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0139347129332329</v>
+        <v>0.2655615112298085</v>
       </c>
     </row>
     <row r="12">
@@ -10606,31 +10606,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.585880781913239</v>
+        <v>1.545312143808394</v>
       </c>
       <c r="C7" t="n">
-        <v>15.29539025124079</v>
+        <v>13.76416139621069</v>
       </c>
       <c r="D7" t="n">
-        <v>1.081547416754697</v>
+        <v>0.6155520107041106</v>
       </c>
       <c r="E7" t="n">
-        <v>0.96</v>
+        <v>0.956</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1959591794226543</v>
+        <v>0.2050950998927083</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01385640646055102</v>
+        <v>0.009172131704244113</v>
       </c>
       <c r="H7" t="n">
-        <v>5.442663880102875</v>
+        <v>17.12338376918315</v>
       </c>
       <c r="I7" t="n">
-        <v>45.21068003709029</v>
+        <v>250.874629762635</v>
       </c>
       <c r="J7" t="n">
-        <v>3.196877843628182</v>
+        <v>11.21945451958688</v>
       </c>
     </row>
     <row r="8">
@@ -10640,31 +10640,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.113516432553321</v>
+        <v>1.148083977374753</v>
       </c>
       <c r="C8" t="n">
-        <v>13.60998188792832</v>
+        <v>12.0750347370252</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9623710484780204</v>
+        <v>0.540011970053193</v>
       </c>
       <c r="E8" t="n">
-        <v>0.955</v>
+        <v>0.956</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2073041244162788</v>
+        <v>0.2050950998927083</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01465861521426905</v>
+        <v>0.009172131704244113</v>
       </c>
       <c r="H8" t="n">
-        <v>6.740463618326174</v>
+        <v>4.612219783772009</v>
       </c>
       <c r="I8" t="n">
-        <v>82.90884681966322</v>
+        <v>55.02142439326884</v>
       </c>
       <c r="J8" t="n">
-        <v>5.862540780654059</v>
+        <v>2.460632903244285</v>
       </c>
     </row>
     <row r="9">
@@ -10674,31 +10674,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1518599044135874</v>
+        <v>0.4477536884667617</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8602281099295731</v>
+        <v>5.142344425197498</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06082731298984879</v>
+        <v>0.2299726339691738</v>
       </c>
       <c r="E9" t="n">
-        <v>0.955</v>
+        <v>0.962</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2073041244162788</v>
+        <v>0.19119623427254</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01465861521426905</v>
+        <v>0.00855055553750749</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5919748300845163</v>
+        <v>0.9491500743400348</v>
       </c>
       <c r="I9" t="n">
-        <v>1.804546441055801</v>
+        <v>6.138675060278767</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1276007025436607</v>
+        <v>0.2745298945313188</v>
       </c>
     </row>
     <row r="10">
@@ -10708,31 +10708,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8187150772148865</v>
+        <v>1.175936429986546</v>
       </c>
       <c r="C10" t="n">
-        <v>5.20014695699566</v>
+        <v>11.35089596806616</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3677059176458221</v>
+        <v>0.5076274998024843</v>
       </c>
       <c r="E10" t="n">
-        <v>0.955</v>
+        <v>0.958</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2073041244162788</v>
+        <v>0.2005891323078097</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01465861521426905</v>
+        <v>0.008970618707759236</v>
       </c>
       <c r="H10" t="n">
-        <v>4.464377783567233</v>
+        <v>20.86890186994476</v>
       </c>
       <c r="I10" t="n">
-        <v>23.89425339845292</v>
+        <v>353.1033483934849</v>
       </c>
       <c r="J10" t="n">
-        <v>1.689578860943577</v>
+        <v>15.79126180181247</v>
       </c>
     </row>
     <row r="11">
@@ -10742,31 +10742,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.711302639785694</v>
+        <v>1.228365243367531</v>
       </c>
       <c r="C11" t="n">
-        <v>15.48141942353191</v>
+        <v>11.92221555344738</v>
       </c>
       <c r="D11" t="n">
-        <v>1.094701665677255</v>
+        <v>0.5331776883982722</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2374868417407583</v>
+        <v>0.2179449471770337</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01679285562374666</v>
+        <v>0.009746794344808966</v>
       </c>
       <c r="H11" t="n">
-        <v>881.6603620468118</v>
+        <v>355.7424004947931</v>
       </c>
       <c r="I11" t="n">
-        <v>12418.16467384625</v>
+        <v>7865.753525804496</v>
       </c>
       <c r="J11" t="n">
-        <v>878.0968450767915</v>
+        <v>351.76719155915</v>
       </c>
     </row>
     <row r="12">
@@ -11561,31 +11561,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2262019018167226</v>
+        <v>0.2447934041529344</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1825743741839238</v>
+        <v>0.2342196813888184</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01290995780563426</v>
+        <v>0.01047462258507481</v>
       </c>
       <c r="E7" t="n">
-        <v>0.755</v>
+        <v>0.762</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4300872004605578</v>
+        <v>0.4258591316386206</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03041175759471984</v>
+        <v>0.01904499934365974</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6539302884634194</v>
+        <v>0.7196569388798837</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09584144656268936</v>
+        <v>0.7744851658412508</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006777013678320577</v>
+        <v>0.0346360295677247</v>
       </c>
     </row>
     <row r="8">
@@ -11595,31 +11595,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.452427759299932</v>
+        <v>0.9054553929851636</v>
       </c>
       <c r="C8" t="n">
-        <v>3.686317266720983</v>
+        <v>9.968409624385156</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2606619936903466</v>
+        <v>0.445800830953767</v>
       </c>
       <c r="E8" t="n">
-        <v>0.48</v>
+        <v>0.494</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4995998398718719</v>
+        <v>0.4999639987039066</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03532704346531139</v>
+        <v>0.02235906974809104</v>
       </c>
       <c r="H8" t="n">
-        <v>24.07066525709875</v>
+        <v>12.28564360617228</v>
       </c>
       <c r="I8" t="n">
-        <v>334.510346611597</v>
+        <v>215.1652928581744</v>
       </c>
       <c r="J8" t="n">
-        <v>23.65345344661227</v>
+        <v>9.622484424590558</v>
       </c>
     </row>
     <row r="9">
@@ -11629,31 +11629,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2208123114130111</v>
+        <v>0.3834388347104334</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1723907361574765</v>
+        <v>3.194230651445061</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01218986585506926</v>
+        <v>0.1428503374488918</v>
       </c>
       <c r="E9" t="n">
-        <v>0.785</v>
+        <v>0.758</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4108223460329294</v>
+        <v>0.4282942913464993</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02904952667428507</v>
+        <v>0.01915390299651745</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6227094536046615</v>
+        <v>3.623063470211623</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07535919623546221</v>
+        <v>66.11036706892092</v>
       </c>
       <c r="J9" t="n">
-        <v>0.005328699868286307</v>
+        <v>2.956545495671414</v>
       </c>
     </row>
     <row r="10">
@@ -11663,31 +11663,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4340597888150813</v>
+        <v>0.2923272490116007</v>
       </c>
       <c r="C10" t="n">
-        <v>3.444503072389618</v>
+        <v>2.184415054664747</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2435631480304596</v>
+        <v>0.09769001106608587</v>
       </c>
       <c r="E10" t="n">
-        <v>0.52</v>
+        <v>0.542</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4995998398718719</v>
+        <v>0.4982328772772828</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03532704346531139</v>
+        <v>0.02228165164434629</v>
       </c>
       <c r="H10" t="n">
-        <v>4.11305481845813</v>
+        <v>1.893024401079963</v>
       </c>
       <c r="I10" t="n">
-        <v>52.76155026352149</v>
+        <v>33.42036859167677</v>
       </c>
       <c r="J10" t="n">
-        <v>3.730804997725091</v>
+        <v>1.494604320081763</v>
       </c>
     </row>
     <row r="11">
@@ -11697,31 +11697,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.257151650587486</v>
+        <v>0.8177327531154317</v>
       </c>
       <c r="C11" t="n">
-        <v>0.959917084710791</v>
+        <v>9.216754090452698</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06787638799758218</v>
+        <v>0.4121857735630295</v>
       </c>
       <c r="E11" t="n">
-        <v>0.605</v>
+        <v>0.584</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4888506929523574</v>
+        <v>0.4928934976239796</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03456696399743547</v>
+        <v>0.02204286732709699</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4173054968946708</v>
+        <v>0.8331560879650358</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5054355380679041</v>
+        <v>7.305491561752932</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03573968964204863</v>
+        <v>0.3267115148226132</v>
       </c>
     </row>
     <row r="12">
@@ -12516,31 +12516,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.152855681804134</v>
+        <v>0.3362979654899019</v>
       </c>
       <c r="C7" t="n">
-        <v>1.054283685506944</v>
+        <v>2.980400837163782</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07454911433163053</v>
+        <v>0.13328757744191</v>
       </c>
       <c r="E7" t="n">
-        <v>0.965</v>
+        <v>0.95</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1837797594948911</v>
+        <v>0.2179449471770337</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01299519141836703</v>
+        <v>0.009746794344808966</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5853224036748056</v>
+        <v>17.69419661370976</v>
       </c>
       <c r="I7" t="n">
-        <v>2.568931015843685</v>
+        <v>294.1362961502549</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1816508541703516</v>
+        <v>13.15417505683959</v>
       </c>
     </row>
     <row r="8">
@@ -12550,31 +12550,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5105943148862118</v>
+        <v>0.2533532861360917</v>
       </c>
       <c r="C8" t="n">
-        <v>6.020308105867004</v>
+        <v>3.813646361854008</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4257000686490898</v>
+        <v>0.1705514501450065</v>
       </c>
       <c r="E8" t="n">
-        <v>0.945</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.22798026230356</v>
+        <v>0.251745903640953</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01612063894515351</v>
+        <v>0.01125841907196565</v>
       </c>
       <c r="H8" t="n">
-        <v>3.52965638740988</v>
+        <v>1.625709649556417</v>
       </c>
       <c r="I8" t="n">
-        <v>44.43471823067637</v>
+        <v>28.14597248833263</v>
       </c>
       <c r="J8" t="n">
-        <v>3.142009058102477</v>
+        <v>1.258726155535013</v>
       </c>
     </row>
     <row r="9">
@@ -12584,31 +12584,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6507796573320727</v>
+        <v>0.663521473925168</v>
       </c>
       <c r="C9" t="n">
-        <v>6.741843113381499</v>
+        <v>8.648598762621573</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4767202983167884</v>
+        <v>0.3867770948668481</v>
       </c>
       <c r="E9" t="n">
-        <v>0.925</v>
+        <v>0.922</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2633913438213185</v>
+        <v>0.2681715868618448</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01862458053218917</v>
+        <v>0.01199299795714149</v>
       </c>
       <c r="H9" t="n">
-        <v>62.60814282922129</v>
+        <v>27.18831132475691</v>
       </c>
       <c r="I9" t="n">
-        <v>870.2218337128835</v>
+        <v>552.663366746793</v>
       </c>
       <c r="J9" t="n">
-        <v>61.53397597549721</v>
+        <v>24.71585713439452</v>
       </c>
     </row>
     <row r="10">
@@ -12618,31 +12618,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07166053682171838</v>
+        <v>0.4028876838081389</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06076314192741409</v>
+        <v>4.343178191341598</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004296602970307512</v>
+        <v>0.194232833484688</v>
       </c>
       <c r="E10" t="n">
-        <v>0.92</v>
+        <v>0.926</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2712931993250107</v>
+        <v>0.2617708921939184</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01918332609325088</v>
+        <v>0.01170675018952741</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3569771935121158</v>
+        <v>1.820059038157668</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06021898622289529</v>
+        <v>32.40667739018753</v>
       </c>
       <c r="J10" t="n">
-        <v>0.004258125351438853</v>
+        <v>1.449270671387296</v>
       </c>
     </row>
     <row r="11">
@@ -12652,31 +12652,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06985219970388491</v>
+        <v>0.3867849863494204</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0612857202701805</v>
+        <v>5.10327719443125</v>
       </c>
       <c r="D11" t="n">
-        <v>0.004333554839294648</v>
+        <v>0.2282254942954537</v>
       </c>
       <c r="E11" t="n">
-        <v>0.95</v>
+        <v>0.926</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2179449471770337</v>
+        <v>0.2617708921939184</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01541103500742244</v>
+        <v>0.01170675018952741</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3523302617548703</v>
+        <v>2.489329709872369</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2606414295818882</v>
+        <v>40.0215071210937</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01843013223155092</v>
+        <v>1.789816209695148</v>
       </c>
     </row>
     <row r="12">
